--- a/data/nzd0026/nzd0026.xlsx
+++ b/data/nzd0026/nzd0026.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P513"/>
+  <dimension ref="A1:P522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24598,6 +24598,446 @@
         </is>
       </c>
     </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>382.62</v>
+      </c>
+      <c r="C514" t="n">
+        <v>373.9792307692308</v>
+      </c>
+      <c r="D514" t="n">
+        <v>369.8109090909091</v>
+      </c>
+      <c r="E514" t="n">
+        <v>377.7971428571428</v>
+      </c>
+      <c r="F514" t="n">
+        <v>377.6447058823529</v>
+      </c>
+      <c r="G514" t="n">
+        <v>369.6054545454546</v>
+      </c>
+      <c r="H514" t="n">
+        <v>359.51</v>
+      </c>
+      <c r="I514" t="n">
+        <v>361.4346153846154</v>
+      </c>
+      <c r="J514" t="n">
+        <v>360.6866666666667</v>
+      </c>
+      <c r="K514" t="n">
+        <v>363.3947058823529</v>
+      </c>
+      <c r="L514" t="n">
+        <v>369.7866666666667</v>
+      </c>
+      <c r="M514" t="n">
+        <v>366.4871428571428</v>
+      </c>
+      <c r="N514" t="n">
+        <v>364.6471428571429</v>
+      </c>
+      <c r="O514" t="n">
+        <v>375.2000000000001</v>
+      </c>
+      <c r="P514" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>383.19</v>
+      </c>
+      <c r="C515" t="n">
+        <v>375.5353846153847</v>
+      </c>
+      <c r="D515" t="n">
+        <v>376.2618181818182</v>
+      </c>
+      <c r="E515" t="n">
+        <v>382.38</v>
+      </c>
+      <c r="F515" t="n">
+        <v>385.1682352941176</v>
+      </c>
+      <c r="G515" t="n">
+        <v>382.4709090909091</v>
+      </c>
+      <c r="H515" t="n">
+        <v>371.86</v>
+      </c>
+      <c r="I515" t="n">
+        <v>373.2776923076924</v>
+      </c>
+      <c r="J515" t="n">
+        <v>375.6166666666667</v>
+      </c>
+      <c r="K515" t="n">
+        <v>373.3982352941176</v>
+      </c>
+      <c r="L515" t="n">
+        <v>380.7566666666667</v>
+      </c>
+      <c r="M515" t="n">
+        <v>373.81</v>
+      </c>
+      <c r="N515" t="n">
+        <v>373.61</v>
+      </c>
+      <c r="O515" t="n">
+        <v>375.61</v>
+      </c>
+      <c r="P515" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr"/>
+      <c r="C516" t="inlineStr"/>
+      <c r="D516" t="inlineStr"/>
+      <c r="E516" t="inlineStr"/>
+      <c r="F516" t="inlineStr"/>
+      <c r="G516" t="inlineStr"/>
+      <c r="H516" t="inlineStr"/>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
+      <c r="L516" t="n">
+        <v>379.3833333333334</v>
+      </c>
+      <c r="M516" t="n">
+        <v>380.8785714285714</v>
+      </c>
+      <c r="N516" t="n">
+        <v>381.8985714285715</v>
+      </c>
+      <c r="O516" t="n">
+        <v>408.73</v>
+      </c>
+      <c r="P516" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr"/>
+      <c r="C517" t="inlineStr"/>
+      <c r="D517" t="inlineStr"/>
+      <c r="E517" t="inlineStr"/>
+      <c r="F517" t="inlineStr"/>
+      <c r="G517" t="n">
+        <v>396.2136363636364</v>
+      </c>
+      <c r="H517" t="n">
+        <v>387.71</v>
+      </c>
+      <c r="I517" t="n">
+        <v>396.2823076923077</v>
+      </c>
+      <c r="J517" t="n">
+        <v>392.94</v>
+      </c>
+      <c r="K517" t="n">
+        <v>392.6370588235294</v>
+      </c>
+      <c r="L517" t="n">
+        <v>393.05</v>
+      </c>
+      <c r="M517" t="n">
+        <v>392.7271428571429</v>
+      </c>
+      <c r="N517" t="n">
+        <v>400.2171428571429</v>
+      </c>
+      <c r="O517" t="n">
+        <v>424.2600000000001</v>
+      </c>
+      <c r="P517" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>362.07</v>
+      </c>
+      <c r="C518" t="n">
+        <v>375.3238461538461</v>
+      </c>
+      <c r="D518" t="n">
+        <v>379.3818181818182</v>
+      </c>
+      <c r="E518" t="n">
+        <v>381.2228571428572</v>
+      </c>
+      <c r="F518" t="n">
+        <v>386.7576470588235</v>
+      </c>
+      <c r="G518" t="n">
+        <v>388.1309090909091</v>
+      </c>
+      <c r="H518" t="n">
+        <v>381.56</v>
+      </c>
+      <c r="I518" t="n">
+        <v>383.5469230769231</v>
+      </c>
+      <c r="J518" t="n">
+        <v>377.0333333333333</v>
+      </c>
+      <c r="K518" t="n">
+        <v>375.0476470588235</v>
+      </c>
+      <c r="L518" t="n">
+        <v>380.3333333333333</v>
+      </c>
+      <c r="M518" t="n">
+        <v>373.6128571428572</v>
+      </c>
+      <c r="N518" t="n">
+        <v>381.4728571428572</v>
+      </c>
+      <c r="O518" t="n">
+        <v>410.76</v>
+      </c>
+      <c r="P518" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr"/>
+      <c r="C519" t="inlineStr"/>
+      <c r="D519" t="inlineStr"/>
+      <c r="E519" t="inlineStr"/>
+      <c r="F519" t="inlineStr"/>
+      <c r="G519" t="inlineStr"/>
+      <c r="H519" t="n">
+        <v>404.2</v>
+      </c>
+      <c r="I519" t="n">
+        <v>380.7315384615384</v>
+      </c>
+      <c r="J519" t="n">
+        <v>372.5233333333333</v>
+      </c>
+      <c r="K519" t="n">
+        <v>378.8335294117647</v>
+      </c>
+      <c r="L519" t="n">
+        <v>380.5633333333333</v>
+      </c>
+      <c r="M519" t="n">
+        <v>367.4657142857143</v>
+      </c>
+      <c r="N519" t="n">
+        <v>372.1057142857143</v>
+      </c>
+      <c r="O519" t="n">
+        <v>372.11</v>
+      </c>
+      <c r="P519" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>372.87</v>
+      </c>
+      <c r="C520" t="n">
+        <v>386.2938461538461</v>
+      </c>
+      <c r="D520" t="n">
+        <v>381.1509090909091</v>
+      </c>
+      <c r="E520" t="n">
+        <v>387.9014285714285</v>
+      </c>
+      <c r="F520" t="n">
+        <v>386.0294117647059</v>
+      </c>
+      <c r="G520" t="n">
+        <v>382.9954545454545</v>
+      </c>
+      <c r="H520" t="n">
+        <v>370.74</v>
+      </c>
+      <c r="I520" t="n">
+        <v>373.0069230769231</v>
+      </c>
+      <c r="J520" t="n">
+        <v>374.3233333333333</v>
+      </c>
+      <c r="K520" t="n">
+        <v>372.9394117647059</v>
+      </c>
+      <c r="L520" t="n">
+        <v>379.0733333333333</v>
+      </c>
+      <c r="M520" t="n">
+        <v>376.3114285714286</v>
+      </c>
+      <c r="N520" t="n">
+        <v>376.5514285714286</v>
+      </c>
+      <c r="O520" t="inlineStr"/>
+      <c r="P520" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:33+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>381.82</v>
+      </c>
+      <c r="C521" t="n">
+        <v>385.6184615384615</v>
+      </c>
+      <c r="D521" t="n">
+        <v>380.2172727272728</v>
+      </c>
+      <c r="E521" t="n">
+        <v>382.8671428571428</v>
+      </c>
+      <c r="F521" t="n">
+        <v>389.1382352941176</v>
+      </c>
+      <c r="G521" t="n">
+        <v>382.3736363636364</v>
+      </c>
+      <c r="H521" t="n">
+        <v>370.3</v>
+      </c>
+      <c r="I521" t="n">
+        <v>372.8592307692308</v>
+      </c>
+      <c r="J521" t="n">
+        <v>369.2533333333333</v>
+      </c>
+      <c r="K521" t="n">
+        <v>374.3582352941176</v>
+      </c>
+      <c r="L521" t="n">
+        <v>374.1733333333333</v>
+      </c>
+      <c r="M521" t="n">
+        <v>379.5071428571428</v>
+      </c>
+      <c r="N521" t="n">
+        <v>382.8671428571428</v>
+      </c>
+      <c r="O521" t="n">
+        <v>409.45</v>
+      </c>
+      <c r="P521" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>376.44</v>
+      </c>
+      <c r="C522" t="n">
+        <v>375.6046153846154</v>
+      </c>
+      <c r="D522" t="n">
+        <v>376.5918181818182</v>
+      </c>
+      <c r="E522" t="n">
+        <v>380.6057142857143</v>
+      </c>
+      <c r="F522" t="n">
+        <v>379.3247058823529</v>
+      </c>
+      <c r="G522" t="n">
+        <v>374.430909090909</v>
+      </c>
+      <c r="H522" t="n">
+        <v>363.13</v>
+      </c>
+      <c r="I522" t="n">
+        <v>366.5223076923077</v>
+      </c>
+      <c r="J522" t="n">
+        <v>365.7233333333333</v>
+      </c>
+      <c r="K522" t="n">
+        <v>370.6247058823529</v>
+      </c>
+      <c r="L522" t="n">
+        <v>373.5933333333333</v>
+      </c>
+      <c r="M522" t="n">
+        <v>376.6257142857143</v>
+      </c>
+      <c r="N522" t="n">
+        <v>367.4557142857143</v>
+      </c>
+      <c r="O522" t="inlineStr"/>
+      <c r="P522" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24609,7 +25049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B585"/>
+  <dimension ref="A1:B594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30467,6 +30907,96 @@
       </c>
       <c r="B585" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -30635,28 +31165,28 @@
         <v>0.0427</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2611243142019437</v>
+        <v>0.2864250991485803</v>
       </c>
       <c r="J2" t="n">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="K2" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01925050113851834</v>
+        <v>0.02370616430121431</v>
       </c>
       <c r="M2" t="n">
-        <v>10.56425298190725</v>
+        <v>10.55261198385008</v>
       </c>
       <c r="N2" t="n">
-        <v>186.8941954281263</v>
+        <v>185.6572935158761</v>
       </c>
       <c r="O2" t="n">
-        <v>13.67092518552151</v>
+        <v>13.62561167492587</v>
       </c>
       <c r="P2" t="n">
-        <v>362.1522749240323</v>
+        <v>361.9127296315984</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -30712,28 +31242,28 @@
         <v>0.0709</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1807918620806326</v>
+        <v>0.1943037988911311</v>
       </c>
       <c r="J3" t="n">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="K3" t="n">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01814129031336664</v>
+        <v>0.0215087454145183</v>
       </c>
       <c r="M3" t="n">
-        <v>7.624905420634925</v>
+        <v>7.56856319403287</v>
       </c>
       <c r="N3" t="n">
-        <v>93.32365589917717</v>
+        <v>92.51066931378936</v>
       </c>
       <c r="O3" t="n">
-        <v>9.660416963008231</v>
+        <v>9.618246686054032</v>
       </c>
       <c r="P3" t="n">
-        <v>369.9904571115922</v>
+        <v>369.8600895849026</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -30789,28 +31319,28 @@
         <v>0.0611</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1796537153720339</v>
+        <v>0.2008090769655239</v>
       </c>
       <c r="J4" t="n">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="K4" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01661808580410318</v>
+        <v>0.02122721120457305</v>
       </c>
       <c r="M4" t="n">
-        <v>7.86626031719171</v>
+        <v>7.854545656148923</v>
       </c>
       <c r="N4" t="n">
-        <v>101.3207977576021</v>
+        <v>100.6322472726156</v>
       </c>
       <c r="O4" t="n">
-        <v>10.06582325284932</v>
+        <v>10.03156255389037</v>
       </c>
       <c r="P4" t="n">
-        <v>365.9450317721154</v>
+        <v>365.7418386529033</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -30866,28 +31396,28 @@
         <v>0.0772</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2399071991342472</v>
+        <v>0.2579217252455653</v>
       </c>
       <c r="J5" t="n">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="K5" t="n">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02848110697294848</v>
+        <v>0.03370645020628904</v>
       </c>
       <c r="M5" t="n">
-        <v>7.898874560282108</v>
+        <v>7.865402678975632</v>
       </c>
       <c r="N5" t="n">
-        <v>105.8596231170308</v>
+        <v>104.8304289248208</v>
       </c>
       <c r="O5" t="n">
-        <v>10.28881057834339</v>
+        <v>10.238673201388</v>
       </c>
       <c r="P5" t="n">
-        <v>370.2612781448154</v>
+        <v>370.0888880150204</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -30943,28 +31473,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2238278186214918</v>
+        <v>0.2315306821527996</v>
       </c>
       <c r="J6" t="n">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="K6" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02689566869258719</v>
+        <v>0.02958063041714298</v>
       </c>
       <c r="M6" t="n">
-        <v>7.325911083610044</v>
+        <v>7.28713703431196</v>
       </c>
       <c r="N6" t="n">
-        <v>98.96583050697292</v>
+        <v>97.79167065585872</v>
       </c>
       <c r="O6" t="n">
-        <v>9.948157141248469</v>
+        <v>9.888967117745853</v>
       </c>
       <c r="P6" t="n">
-        <v>375.7651948780421</v>
+        <v>375.6917564967517</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -31020,28 +31550,28 @@
         <v>0.1267</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3501643936507335</v>
+        <v>0.367545678942526</v>
       </c>
       <c r="J7" t="n">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="K7" t="n">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07600447967482271</v>
+        <v>0.08469064673803051</v>
       </c>
       <c r="M7" t="n">
-        <v>6.747720845847685</v>
+        <v>6.771524337855623</v>
       </c>
       <c r="N7" t="n">
-        <v>80.6286380413452</v>
+        <v>80.75577567625822</v>
       </c>
       <c r="O7" t="n">
-        <v>8.979345078642718</v>
+        <v>8.986421739283006</v>
       </c>
       <c r="P7" t="n">
-        <v>368.4063696408647</v>
+        <v>368.2423318693529</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -31097,28 +31627,28 @@
         <v>0.1452</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2697415866553662</v>
+        <v>0.3008701425033437</v>
       </c>
       <c r="J8" t="n">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="K8" t="n">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04359542769865909</v>
+        <v>0.05312563696555495</v>
       </c>
       <c r="M8" t="n">
-        <v>6.970011675779606</v>
+        <v>7.052841657780381</v>
       </c>
       <c r="N8" t="n">
-        <v>85.41741538986578</v>
+        <v>88.54256478820469</v>
       </c>
       <c r="O8" t="n">
-        <v>9.242154261310821</v>
+        <v>9.409705882130678</v>
       </c>
       <c r="P8" t="n">
-        <v>361.4251879886451</v>
+        <v>361.1282204295535</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -31174,28 +31704,28 @@
         <v>0.1496</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3227892784299182</v>
+        <v>0.3502736469505009</v>
       </c>
       <c r="J9" t="n">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="K9" t="n">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07792536247451698</v>
+        <v>0.09054370734467043</v>
       </c>
       <c r="M9" t="n">
-        <v>6.141215895126729</v>
+        <v>6.224592055227049</v>
       </c>
       <c r="N9" t="n">
-        <v>65.79092689434543</v>
+        <v>67.41952416759368</v>
       </c>
       <c r="O9" t="n">
-        <v>8.111160637932493</v>
+        <v>8.210939298740046</v>
       </c>
       <c r="P9" t="n">
-        <v>360.8110774442116</v>
+        <v>360.5476098288505</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -31251,28 +31781,28 @@
         <v>0.1384</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3243258985033241</v>
+        <v>0.3467040829957629</v>
       </c>
       <c r="J10" t="n">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="K10" t="n">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06921866671111621</v>
+        <v>0.07943399356390346</v>
       </c>
       <c r="M10" t="n">
-        <v>6.692089542665909</v>
+        <v>6.711511797281356</v>
       </c>
       <c r="N10" t="n">
-        <v>76.58473500864372</v>
+        <v>77.26524038597717</v>
       </c>
       <c r="O10" t="n">
-        <v>8.751270479687147</v>
+        <v>8.790064868132497</v>
       </c>
       <c r="P10" t="n">
-        <v>359.5496360275695</v>
+        <v>359.3362740087858</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -31328,28 +31858,28 @@
         <v>0.0969</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2581396752372402</v>
+        <v>0.2969787848517048</v>
       </c>
       <c r="J11" t="n">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="K11" t="n">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04189669531375673</v>
+        <v>0.05501720773580288</v>
       </c>
       <c r="M11" t="n">
-        <v>7.074803755193159</v>
+        <v>7.131907236459393</v>
       </c>
       <c r="N11" t="n">
-        <v>82.91583353984852</v>
+        <v>84.36448725882748</v>
       </c>
       <c r="O11" t="n">
-        <v>9.105813172904906</v>
+        <v>9.18501427646291</v>
       </c>
       <c r="P11" t="n">
-        <v>358.5359221037926</v>
+        <v>358.164894997627</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -31405,28 +31935,28 @@
         <v>0.0839</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3717090570837906</v>
+        <v>0.400964974458024</v>
       </c>
       <c r="J12" t="n">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="K12" t="n">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07182660700294907</v>
+        <v>0.08488639516915042</v>
       </c>
       <c r="M12" t="n">
-        <v>7.654266545407451</v>
+        <v>7.629990707700459</v>
       </c>
       <c r="N12" t="n">
-        <v>96.57507636471482</v>
+        <v>96.23461361828438</v>
       </c>
       <c r="O12" t="n">
-        <v>9.827261895600158</v>
+        <v>9.809924241210243</v>
       </c>
       <c r="P12" t="n">
-        <v>362.6902678057468</v>
+        <v>362.4108639323823</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -31482,28 +32012,28 @@
         <v>0.0757</v>
       </c>
       <c r="I13" t="n">
-        <v>0.334683032356153</v>
+        <v>0.3649664595390598</v>
       </c>
       <c r="J13" t="n">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="K13" t="n">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06053721424482605</v>
+        <v>0.07283480696148281</v>
       </c>
       <c r="M13" t="n">
-        <v>7.467277137077494</v>
+        <v>7.473653371909516</v>
       </c>
       <c r="N13" t="n">
-        <v>93.64571655295427</v>
+        <v>93.77441515424466</v>
       </c>
       <c r="O13" t="n">
-        <v>9.677071693077108</v>
+        <v>9.683719076586467</v>
       </c>
       <c r="P13" t="n">
-        <v>360.8891480169609</v>
+        <v>360.5983224100515</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -31559,28 +32089,28 @@
         <v>0.0757</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1887375717547913</v>
+        <v>0.2258505256465028</v>
       </c>
       <c r="J14" t="n">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="K14" t="n">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01663156185576442</v>
+        <v>0.02397698245328683</v>
       </c>
       <c r="M14" t="n">
-        <v>7.87913099703322</v>
+        <v>7.914682093811434</v>
       </c>
       <c r="N14" t="n">
-        <v>113.8153255787837</v>
+        <v>115.0430856162789</v>
       </c>
       <c r="O14" t="n">
-        <v>10.668426574654</v>
+        <v>10.7258139838559</v>
       </c>
       <c r="P14" t="n">
-        <v>364.4164387869438</v>
+        <v>364.0580524970338</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -31636,28 +32166,28 @@
         <v>0.0567</v>
       </c>
       <c r="I15" t="n">
-        <v>0.245629796021958</v>
+        <v>0.2329453239443844</v>
       </c>
       <c r="J15" t="n">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="K15" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0104687766412136</v>
+        <v>0.00959123634425374</v>
       </c>
       <c r="M15" t="n">
-        <v>13.78819864202087</v>
+        <v>13.88823185789856</v>
       </c>
       <c r="N15" t="n">
-        <v>297.0833420777852</v>
+        <v>299.099243212545</v>
       </c>
       <c r="O15" t="n">
-        <v>17.23610576893125</v>
+        <v>17.29448591929072</v>
       </c>
       <c r="P15" t="n">
-        <v>393.7525015429442</v>
+        <v>393.8739303238173</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -31694,7 +32224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P513"/>
+  <dimension ref="A1:P522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66632,6 +67162,652 @@
         </is>
       </c>
     </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>-34.829608596912244,173.41126641384173</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>-34.83026679019566,173.41089949569792</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>-34.830971731365665,173.4109124216928</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>-34.83165712715893,173.41120008005535</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>-34.832322296122456,173.4115136778387</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>-34.8329487158444,173.4119464009283</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>-34.83349496098721,173.41254699147865</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>-34.83392867656611,173.41327490928168</t>
+        </is>
+      </c>
+      <c r="J514" t="inlineStr">
+        <is>
+          <t>-34.83426833160531,173.4140780374665</t>
+        </is>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>-34.834466964285745,173.41494186385617</t>
+        </is>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>-34.834580855512414,173.4158287452655</t>
+        </is>
+      </c>
+      <c r="M514" t="inlineStr">
+        <is>
+          <t>-34.83471839025003,173.4167091001968</t>
+        </is>
+      </c>
+      <c r="N514" t="inlineStr">
+        <is>
+          <t>-34.83483671907222,173.41759242935757</t>
+        </is>
+      </c>
+      <c r="O514" t="inlineStr">
+        <is>
+          <t>-34.83457178944301,173.41843629213548</t>
+        </is>
+      </c>
+      <c r="P514" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>-34.8296101907612,173.41127234004122</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>-34.83026853286571,173.41091638202727</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>-34.830962895317334,173.41098215069408</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>-34.83164474868491,173.41124789778647</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>-34.832290084534776,173.4115860916282</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>-34.83287074940318,173.41205059204103</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>-34.83340846294958,173.41263206516908</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>-34.833838066742466,173.4133434629956</t>
+        </is>
+      </c>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>-34.83414356121164,173.4141393776149</t>
+        </is>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>-34.83437997042701,173.4149708037495</t>
+        </is>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>-34.834483680860444,173.41585119706858</t>
+        </is>
+      </c>
+      <c r="M515" t="inlineStr">
+        <is>
+          <t>-34.83465300963678,173.41672033896413</t>
+        </is>
+      </c>
+      <c r="N515" t="inlineStr">
+        <is>
+          <t>-34.83475600626171,173.41758731743468</t>
+        </is>
+      </c>
+      <c r="O515" t="inlineStr">
+        <is>
+          <t>-34.83456819850869,173.41843522488415</t>
+        </is>
+      </c>
+      <c r="P515" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr"/>
+      <c r="C516" t="inlineStr"/>
+      <c r="D516" t="inlineStr"/>
+      <c r="E516" t="inlineStr"/>
+      <c r="F516" t="inlineStr"/>
+      <c r="G516" t="inlineStr"/>
+      <c r="H516" t="inlineStr"/>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>-34.83449584614686,173.41584838633216</t>
+        </is>
+      </c>
+      <c r="M516" t="inlineStr">
+        <is>
+          <t>-34.83458989935932,173.41673118744967</t>
+        </is>
+      </c>
+      <c r="N516" t="inlineStr">
+        <is>
+          <t>-34.83468136556453,173.41758259009703</t>
+        </is>
+      </c>
+      <c r="O516" t="inlineStr">
+        <is>
+          <t>-34.83427812104246,173.41834901211197</t>
+        </is>
+      </c>
+      <c r="P516" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr"/>
+      <c r="C517" t="inlineStr"/>
+      <c r="D517" t="inlineStr"/>
+      <c r="E517" t="inlineStr"/>
+      <c r="F517" t="inlineStr"/>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>-34.83278746646924,173.41216188754538</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>-34.83329745121089,173.41274124855198</t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>-34.833662061345045,173.41347662490696</t>
+        </is>
+      </c>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>-34.83399878962949,173.4142105505824</t>
+        </is>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>-34.83421266350523,173.41502646088705</t>
+        </is>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>-34.83437478382696,173.4158763572169</t>
+        </is>
+      </c>
+      <c r="M517" t="inlineStr">
+        <is>
+          <t>-34.83448411183751,173.41674937200122</t>
+        </is>
+      </c>
+      <c r="N517" t="inlineStr">
+        <is>
+          <t>-34.834516402158144,173.41757214224103</t>
+        </is>
+      </c>
+      <c r="O517" t="inlineStr">
+        <is>
+          <t>-34.834142103410976,173.41830858707155</t>
+        </is>
+      </c>
+      <c r="P517" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>-34.82955113426907,173.41105275890598</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>-34.83026829597297,173.41091408655487</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>-34.83095862172384,173.41101587531267</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>-34.831647874174195,173.41123582410884</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>-34.83228327954807,173.41160138967092</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>-34.832836448989006,173.41209642958955</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>-34.8333405251779,173.41269888405645</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>-34.83375949817721,173.4134029063716</t>
+        </is>
+      </c>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>-34.83413172209024,173.41414519800347</t>
+        </is>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>-34.834365626619395,173.41497557543966</t>
+        </is>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>-34.83448743083951,173.41585033065235</t>
+        </is>
+      </c>
+      <c r="M518" t="inlineStr">
+        <is>
+          <t>-34.83465476978596,173.41672003639903</t>
+        </is>
+      </c>
+      <c r="N518" t="inlineStr">
+        <is>
+          <t>-34.83468519923015,173.41758283290045</t>
+        </is>
+      </c>
+      <c r="O518" t="inlineStr">
+        <is>
+          <t>-34.83426034153334,173.41834372795543</t>
+        </is>
+      </c>
+      <c r="P518" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr"/>
+      <c r="C519" t="inlineStr"/>
+      <c r="D519" t="inlineStr"/>
+      <c r="E519" t="inlineStr"/>
+      <c r="F519" t="inlineStr"/>
+      <c r="G519" t="inlineStr"/>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>-34.83318195687532,173.41285484029095</t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>-34.833781038326094,173.4133866095471</t>
+        </is>
+      </c>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>-34.83416941228043,173.41412666861953</t>
+        </is>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>-34.834332703385414,173.4149865278578</t>
+        </is>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>-34.83448539344931,173.41585080138245</t>
+        </is>
+      </c>
+      <c r="M519" t="inlineStr">
+        <is>
+          <t>-34.83470965327782,173.41671060206193</t>
+        </is>
+      </c>
+      <c r="N519" t="inlineStr">
+        <is>
+          <t>-34.834769552737654,173.41758817539613</t>
+        </is>
+      </c>
+      <c r="O519" t="inlineStr">
+        <is>
+          <t>-34.83459885282567,173.4184443355693</t>
+        </is>
+      </c>
+      <c r="P519" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>-34.829581333661494,173.41116504467507</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>-34.83028058074167,173.41103312559645</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>-34.83095619852246,173.41103499772007</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>-34.831629835068355,173.41130550859347</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>-34.83228639745117,173.41159438042737</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>-34.832867570583,173.4120548400776</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>-34.83341630730848,173.41262434999152</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>-34.83384013836267,173.41334189564813</t>
+        </is>
+      </c>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>-34.83415436963282,173.4141340639411</t>
+        </is>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>-34.83438396050185,173.41496947638888</t>
+        </is>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>-34.8344985921945,173.41584775186968</t>
+        </is>
+      </c>
+      <c r="M520" t="inlineStr">
+        <is>
+          <t>-34.83463067614951,173.4167241780319</t>
+        </is>
+      </c>
+      <c r="N520" t="inlineStr">
+        <is>
+          <t>-34.83472951794824,173.41758563980724</t>
+        </is>
+      </c>
+      <c r="O520" t="inlineStr"/>
+      <c r="P520" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:33+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>-34.82960635993078,173.41125809636918</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>-34.830279824414724,173.41102579677712</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>-34.830957477365494,173.41102490588443</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>-34.831643432892136,173.4112529806554</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>-34.832273087175416,173.41162430275978</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>-34.832871338889746,173.41204980427685</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>-34.83341938902077,173.4126213190285</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>-34.83384126833731,173.4133410407313</t>
+        </is>
+      </c>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t>-34.83419673975577,173.4141132337786</t>
+        </is>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>-34.834371621962696,173.41497358099588</t>
+        </is>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>-34.83454199746321,173.41583772326405</t>
+        </is>
+      </c>
+      <c r="M521" t="inlineStr">
+        <is>
+          <t>-34.834602143875685,173.41672908265178</t>
+        </is>
+      </c>
+      <c r="N521" t="inlineStr">
+        <is>
+          <t>-34.834672643332,173.41758203767864</t>
+        </is>
+      </c>
+      <c r="O521" t="inlineStr">
+        <is>
+          <t>-34.83427181500971,173.4183471379281</t>
+        </is>
+      </c>
+      <c r="P521" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>-34.82959131621548,173.41120216137764</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>-34.83026861039423,173.4109171332728</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>-34.83096244330308,173.41098571772122</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>-34.83164954110133,173.41122938481374</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>-34.83231510329627,173.4115298478032</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>-34.83291947293015,173.4119854799809</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>-34.83346960691269,173.41257192807677</t>
+        </is>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>-34.83388975130631,173.41330435943405</t>
+        </is>
+      </c>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>-34.83422624005614,173.41409873071413</t>
+        </is>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>-34.8344040899176,173.41496278002288</t>
+        </is>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>-34.834547135229656,173.4158365362039</t>
+        </is>
+      </c>
+      <c r="M522" t="inlineStr">
+        <is>
+          <t>-34.83462787011455,173.41672466038176</t>
+        </is>
+      </c>
+      <c r="N522" t="inlineStr">
+        <is>
+          <t>-34.83481142717159,173.41759082750107</t>
+        </is>
+      </c>
+      <c r="O522" t="inlineStr"/>
+      <c r="P522" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0026/nzd0026.xlsx
+++ b/data/nzd0026/nzd0026.xlsx
@@ -31010,7 +31010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31101,35 +31101,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -31188,27 +31193,28 @@
       <c r="P2" t="n">
         <v>361.9127296315984</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.40728842539653 -34.82853863924328, 173.416941207978 -34.83113466955417)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.4072884253965</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.82853863924328</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.416941207978</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.83113466955417</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.4121148166873</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.82983665439872</v>
       </c>
     </row>
@@ -31265,27 +31271,28 @@
       <c r="P3" t="n">
         <v>369.8600895849026</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.4068413458961 -34.82984791874834, 173.41691733575533 -34.83088767832623)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.4068413458961</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.82984791874834</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.4169173357553</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.83088767832623</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.4118793408257</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.83036779853728</v>
       </c>
     </row>
@@ -31342,27 +31349,28 @@
       <c r="P4" t="n">
         <v>365.7418386529033</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.40691504551435 -34.83147820835349, 173.41695170033333 -34.83020627988048)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.4069150455144</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.83147820835349</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.4169517003333</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.83020627988048</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.4119333729238</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.83084224411698</v>
       </c>
     </row>
@@ -31419,27 +31427,28 @@
       <c r="P5" t="n">
         <v>370.0888880150204</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.40725807838635 -34.83267750743935, 173.4169453297692 -34.83016970578026)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.4072580783863</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.83267750743935</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.4169453297692</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.83016970578026</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.4121017040778</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.8314236066098</v>
       </c>
     </row>
@@ -31496,27 +31505,28 @@
       <c r="P6" t="n">
         <v>375.6917564967517</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.40787878375897 -34.833939106578825, 173.4168128831537 -34.82996488818084)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.407878783759</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-34.83393910657882</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.4168128831537</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.82996488818084</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.4123458334564</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-34.83195199737983</v>
       </c>
     </row>
@@ -31573,27 +31583,28 @@
       <c r="P7" t="n">
         <v>368.2423318693529</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.40895306061722 -34.83518853828041, 173.41646749867368 -34.82956535131701)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.4089530606172</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-34.83518853828041</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.4164674986737</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.82956535131701</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.4127102796455</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-34.83237694479871</v>
       </c>
     </row>
@@ -31650,27 +31661,28 @@
       <c r="P8" t="n">
         <v>361.1282204295535</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.4100704081674 -34.836012903302255, 173.41646056305748 -34.82951561789257)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.4100704081674</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-34.83601290330225</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.4164605630575</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-34.82951561789257</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.4132654856124</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-34.83276426059741</v>
       </c>
     </row>
@@ -31727,27 +31739,28 @@
       <c r="P9" t="n">
         <v>360.5476098288505</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.41118267113575 -34.836693946541914, 173.4165513459653 -34.829597831846705)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.4111826711357</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-34.83669394654191</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.4165513459653</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-34.8295978318467</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.4138670085505</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-34.83314588919431</v>
       </c>
     </row>
@@ -31804,27 +31817,28 @@
       <c r="P10" t="n">
         <v>359.3362740087858</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.41259609466405 -34.83728258956661, 173.41640576806964 -34.82953327143195)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.4125960946641</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-34.83728258956661</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.4164057680696</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-34.82953327143195</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.4145009313668</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-34.83340793049928</v>
       </c>
     </row>
@@ -31881,27 +31895,28 @@
       <c r="P11" t="n">
         <v>358.164894997627</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (173.4138905338152 -34.83762715447455, 173.41657276477457 -34.829564152389146)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>173.4138905338152</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-34.83762715447455</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.4165727647746</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-34.82956415238915</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.4152316492949</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-34.83359565343185</v>
       </c>
     </row>
@@ -31958,27 +31973,28 @@
       <c r="P12" t="n">
         <v>362.4108639323823</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (173.41507188941438 -34.83785650332291, 173.41696935073168 -34.82964386071466)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>173.4150718894144</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-34.83785650332291</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.4169693507317</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-34.82964386071466</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.416020620073</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-34.83375018201879</v>
       </c>
     </row>
@@ -32035,27 +32051,28 @@
       <c r="P13" t="n">
         <v>360.5983224100515</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (173.41614661141247 -34.8379904927344, 173.41756944817294 -34.829713091301066)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>173.4161466114125</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-34.8379904927344</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>173.4175694481729</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-34.82971309130107</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>173.4168580297927</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-34.83385179201773</v>
       </c>
     </row>
@@ -32112,27 +32129,28 @@
       <c r="P14" t="n">
         <v>364.0580524970338</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (173.41780041327883 -34.83812045828274, 173.41727167433876 -34.82977194369982)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>173.4178004132788</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-34.83812045828274</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>173.4172716743388</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-34.82977194369982</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>173.4175360438088</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-34.83394620099128</v>
       </c>
     </row>
@@ -32189,27 +32207,28 @@
       <c r="P15" t="n">
         <v>393.8739303238173</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (173.41941299675617 -34.837857927175094, 173.4169996197645 -34.82973758215761)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>173.4194129967562</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-34.83785792717509</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>173.4169996197645</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-34.82973758215761</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>173.4182063082603</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-34.83379775466635</v>
       </c>
     </row>

--- a/data/nzd0026/nzd0026.xlsx
+++ b/data/nzd0026/nzd0026.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P522"/>
+  <dimension ref="A1:P530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25031,8 +25031,384 @@
       <c r="N522" t="n">
         <v>367.4557142857143</v>
       </c>
-      <c r="O522" t="inlineStr"/>
+      <c r="O522" t="n">
+        <v>341.17</v>
+      </c>
       <c r="P522" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr"/>
+      <c r="C523" t="inlineStr"/>
+      <c r="D523" t="inlineStr"/>
+      <c r="E523" t="inlineStr"/>
+      <c r="F523" t="inlineStr"/>
+      <c r="G523" t="inlineStr"/>
+      <c r="H523" t="inlineStr"/>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="inlineStr"/>
+      <c r="M523" t="n">
+        <v>408.8014285714286</v>
+      </c>
+      <c r="N523" t="n">
+        <v>374.8914285714285</v>
+      </c>
+      <c r="O523" t="n">
+        <v>375.39</v>
+      </c>
+      <c r="P523" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>382.58</v>
+      </c>
+      <c r="C524" t="n">
+        <v>386.7392307692308</v>
+      </c>
+      <c r="D524" t="n">
+        <v>381.7945454545454</v>
+      </c>
+      <c r="E524" t="n">
+        <v>386.1957142857143</v>
+      </c>
+      <c r="F524" t="n">
+        <v>388.1005882352941</v>
+      </c>
+      <c r="G524" t="n">
+        <v>378.1072727272728</v>
+      </c>
+      <c r="H524" t="n">
+        <v>373.02</v>
+      </c>
+      <c r="I524" t="n">
+        <v>377.8046153846154</v>
+      </c>
+      <c r="J524" t="n">
+        <v>369.6733333333333</v>
+      </c>
+      <c r="K524" t="n">
+        <v>375.2005882352942</v>
+      </c>
+      <c r="L524" t="n">
+        <v>383.0633333333333</v>
+      </c>
+      <c r="M524" t="n">
+        <v>386.8257142857143</v>
+      </c>
+      <c r="N524" t="n">
+        <v>386.3657142857143</v>
+      </c>
+      <c r="O524" t="n">
+        <v>411.21</v>
+      </c>
+      <c r="P524" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>384.46</v>
+      </c>
+      <c r="C525" t="n">
+        <v>388.1653846153847</v>
+      </c>
+      <c r="D525" t="n">
+        <v>381.2963636363637</v>
+      </c>
+      <c r="E525" t="n">
+        <v>386.81</v>
+      </c>
+      <c r="F525" t="n">
+        <v>384.8123529411765</v>
+      </c>
+      <c r="G525" t="n">
+        <v>381.5581818181818</v>
+      </c>
+      <c r="H525" t="n">
+        <v>371.37</v>
+      </c>
+      <c r="I525" t="n">
+        <v>373.4076923076923</v>
+      </c>
+      <c r="J525" t="n">
+        <v>370.5633333333333</v>
+      </c>
+      <c r="K525" t="n">
+        <v>377.1723529411765</v>
+      </c>
+      <c r="L525" t="n">
+        <v>381.6633333333333</v>
+      </c>
+      <c r="M525" t="n">
+        <v>383.93</v>
+      </c>
+      <c r="N525" t="n">
+        <v>382.52</v>
+      </c>
+      <c r="O525" t="n">
+        <v>406.23</v>
+      </c>
+      <c r="P525" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:17:32+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>375.29</v>
+      </c>
+      <c r="C526" t="n">
+        <v>374.4353846153846</v>
+      </c>
+      <c r="D526" t="n">
+        <v>372.5390909090909</v>
+      </c>
+      <c r="E526" t="n">
+        <v>378.1542857142857</v>
+      </c>
+      <c r="F526" t="n">
+        <v>382.2670588235294</v>
+      </c>
+      <c r="G526" t="n">
+        <v>374.8445454545454</v>
+      </c>
+      <c r="H526" t="n">
+        <v>362.68</v>
+      </c>
+      <c r="I526" t="n">
+        <v>366.9776923076923</v>
+      </c>
+      <c r="J526" t="n">
+        <v>366.4733333333333</v>
+      </c>
+      <c r="K526" t="n">
+        <v>362.8070588235294</v>
+      </c>
+      <c r="L526" t="n">
+        <v>369.1433333333333</v>
+      </c>
+      <c r="M526" t="n">
+        <v>374.3242857142857</v>
+      </c>
+      <c r="N526" t="n">
+        <v>366.7342857142857</v>
+      </c>
+      <c r="O526" t="n">
+        <v>371.31</v>
+      </c>
+      <c r="P526" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr"/>
+      <c r="C527" t="inlineStr"/>
+      <c r="D527" t="inlineStr"/>
+      <c r="E527" t="inlineStr"/>
+      <c r="F527" t="inlineStr"/>
+      <c r="G527" t="inlineStr"/>
+      <c r="H527" t="inlineStr"/>
+      <c r="I527" t="n">
+        <v>382.3330769230769</v>
+      </c>
+      <c r="J527" t="n">
+        <v>379.4533333333333</v>
+      </c>
+      <c r="K527" t="n">
+        <v>377.614705882353</v>
+      </c>
+      <c r="L527" t="n">
+        <v>380.2133333333333</v>
+      </c>
+      <c r="M527" t="n">
+        <v>385.9085714285715</v>
+      </c>
+      <c r="N527" t="n">
+        <v>383.7285714285715</v>
+      </c>
+      <c r="O527" t="n">
+        <v>410.43</v>
+      </c>
+      <c r="P527" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>370.77</v>
+      </c>
+      <c r="C528" t="n">
+        <v>369.5369230769231</v>
+      </c>
+      <c r="D528" t="n">
+        <v>367.6327272727273</v>
+      </c>
+      <c r="E528" t="n">
+        <v>372.58</v>
+      </c>
+      <c r="F528" t="n">
+        <v>380.5535294117647</v>
+      </c>
+      <c r="G528" t="n">
+        <v>373.3263636363636</v>
+      </c>
+      <c r="H528" t="n">
+        <v>362.69</v>
+      </c>
+      <c r="I528" t="n">
+        <v>365.6084615384616</v>
+      </c>
+      <c r="J528" t="n">
+        <v>371.3633333333333</v>
+      </c>
+      <c r="K528" t="n">
+        <v>363.6335294117647</v>
+      </c>
+      <c r="L528" t="n">
+        <v>375.3933333333333</v>
+      </c>
+      <c r="M528" t="n">
+        <v>365.26</v>
+      </c>
+      <c r="N528" t="n">
+        <v>371.4</v>
+      </c>
+      <c r="O528" t="n">
+        <v>395.82</v>
+      </c>
+      <c r="P528" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:08+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>345.01</v>
+      </c>
+      <c r="C529" t="n">
+        <v>359.1523076923077</v>
+      </c>
+      <c r="D529" t="n">
+        <v>356.6136363636364</v>
+      </c>
+      <c r="E529" t="inlineStr"/>
+      <c r="F529" t="inlineStr"/>
+      <c r="G529" t="inlineStr"/>
+      <c r="H529" t="inlineStr"/>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
+      <c r="L529" t="inlineStr"/>
+      <c r="M529" t="inlineStr"/>
+      <c r="N529" t="inlineStr"/>
+      <c r="O529" t="inlineStr"/>
+      <c r="P529" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>362.28</v>
+      </c>
+      <c r="C530" t="n">
+        <v>371.4184615384616</v>
+      </c>
+      <c r="D530" t="n">
+        <v>365.3909090909091</v>
+      </c>
+      <c r="E530" t="n">
+        <v>370.9242857142857</v>
+      </c>
+      <c r="F530" t="n">
+        <v>377.8676470588235</v>
+      </c>
+      <c r="G530" t="n">
+        <v>376.8154545454545</v>
+      </c>
+      <c r="H530" t="n">
+        <v>368.49</v>
+      </c>
+      <c r="I530" t="n">
+        <v>369.6992307692308</v>
+      </c>
+      <c r="J530" t="n">
+        <v>369.5966666666667</v>
+      </c>
+      <c r="K530" t="n">
+        <v>364.7476470588235</v>
+      </c>
+      <c r="L530" t="n">
+        <v>372.8366666666667</v>
+      </c>
+      <c r="M530" t="n">
+        <v>369.5042857142857</v>
+      </c>
+      <c r="N530" t="n">
+        <v>375.5742857142857</v>
+      </c>
+      <c r="O530" t="n">
+        <v>420.6</v>
+      </c>
+      <c r="P530" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -25049,7 +25425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B594"/>
+  <dimension ref="A1:B602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30997,6 +31373,86 @@
       </c>
       <c r="B594" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>-0.16</v>
       </c>
     </row>
   </sheetData>
@@ -31170,28 +31626,28 @@
         <v>0.0427</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2864250991485803</v>
+        <v>0.2887418461922608</v>
       </c>
       <c r="J2" t="n">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="K2" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02370616430121431</v>
+        <v>0.02456955641215286</v>
       </c>
       <c r="M2" t="n">
-        <v>10.55261198385008</v>
+        <v>10.56314499198472</v>
       </c>
       <c r="N2" t="n">
-        <v>185.6572935158761</v>
+        <v>185.5824251850718</v>
       </c>
       <c r="O2" t="n">
-        <v>13.62561167492587</v>
+        <v>13.6228640595534</v>
       </c>
       <c r="P2" t="n">
-        <v>361.9127296315984</v>
+        <v>361.8916314561658</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31248,28 +31704,28 @@
         <v>0.0709</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1943037988911311</v>
+        <v>0.1943315880218513</v>
       </c>
       <c r="J3" t="n">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="K3" t="n">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0215087454145183</v>
+        <v>0.02190581755571763</v>
       </c>
       <c r="M3" t="n">
-        <v>7.56856319403287</v>
+        <v>7.580895161640091</v>
       </c>
       <c r="N3" t="n">
-        <v>92.51066931378936</v>
+        <v>92.64555128453188</v>
       </c>
       <c r="O3" t="n">
-        <v>9.618246686054032</v>
+        <v>9.625255907482765</v>
       </c>
       <c r="P3" t="n">
-        <v>369.8600895849026</v>
+        <v>369.8605638469409</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31326,28 +31782,28 @@
         <v>0.0611</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2008090769655239</v>
+        <v>0.2006016806314231</v>
       </c>
       <c r="J4" t="n">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="K4" t="n">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02122721120457305</v>
+        <v>0.02165454467086236</v>
       </c>
       <c r="M4" t="n">
-        <v>7.854545656148923</v>
+        <v>7.851789929547499</v>
       </c>
       <c r="N4" t="n">
-        <v>100.6322472726156</v>
+        <v>100.3065277309642</v>
       </c>
       <c r="O4" t="n">
-        <v>10.03156255389037</v>
+        <v>10.01531465960826</v>
       </c>
       <c r="P4" t="n">
-        <v>365.7418386529033</v>
+        <v>365.7445368300318</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31404,28 +31860,28 @@
         <v>0.0772</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2579217252455653</v>
+        <v>0.2634822170104056</v>
       </c>
       <c r="J5" t="n">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="K5" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03370645020628904</v>
+        <v>0.03589112473187317</v>
       </c>
       <c r="M5" t="n">
-        <v>7.865402678975632</v>
+        <v>7.84375427329758</v>
       </c>
       <c r="N5" t="n">
-        <v>104.8304289248208</v>
+        <v>104.1040961655122</v>
       </c>
       <c r="O5" t="n">
-        <v>10.238673201388</v>
+        <v>10.20314148512664</v>
       </c>
       <c r="P5" t="n">
-        <v>370.0888880150204</v>
+        <v>370.0356932348969</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31482,28 +31938,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2315306821527996</v>
+        <v>0.2341516106190447</v>
       </c>
       <c r="J6" t="n">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="K6" t="n">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02958063041714298</v>
+        <v>0.03099785400925936</v>
       </c>
       <c r="M6" t="n">
-        <v>7.28713703431196</v>
+        <v>7.23450951151025</v>
       </c>
       <c r="N6" t="n">
-        <v>97.79167065585872</v>
+        <v>96.72015515784982</v>
       </c>
       <c r="O6" t="n">
-        <v>9.888967117745853</v>
+        <v>9.834640570852084</v>
       </c>
       <c r="P6" t="n">
-        <v>375.6917564967517</v>
+        <v>375.6668243321196</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31560,28 +32016,28 @@
         <v>0.1267</v>
       </c>
       <c r="I7" t="n">
-        <v>0.367545678942526</v>
+        <v>0.3657057112310205</v>
       </c>
       <c r="J7" t="n">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="K7" t="n">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08469064673803051</v>
+        <v>0.08596546059528465</v>
       </c>
       <c r="M7" t="n">
-        <v>6.771524337855623</v>
+        <v>6.718337909784396</v>
       </c>
       <c r="N7" t="n">
-        <v>80.75577567625822</v>
+        <v>79.86747923394631</v>
       </c>
       <c r="O7" t="n">
-        <v>8.986421739283006</v>
+        <v>8.936860703510282</v>
       </c>
       <c r="P7" t="n">
-        <v>368.2423318693529</v>
+        <v>368.259934707709</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31638,28 +32094,28 @@
         <v>0.1452</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3008701425033437</v>
+        <v>0.2979282006067713</v>
       </c>
       <c r="J8" t="n">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="K8" t="n">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05312563696555495</v>
+        <v>0.05337367995935638</v>
       </c>
       <c r="M8" t="n">
-        <v>7.052841657780381</v>
+        <v>7.013774797567207</v>
       </c>
       <c r="N8" t="n">
-        <v>88.54256478820469</v>
+        <v>87.69818922199666</v>
       </c>
       <c r="O8" t="n">
-        <v>9.409705882130678</v>
+        <v>9.364731134527924</v>
       </c>
       <c r="P8" t="n">
-        <v>361.1282204295535</v>
+        <v>361.1566193591475</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31716,28 +32172,28 @@
         <v>0.1496</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3502736469505009</v>
+        <v>0.3591929457834716</v>
       </c>
       <c r="J9" t="n">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="K9" t="n">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09054370734467043</v>
+        <v>0.0967308319102208</v>
       </c>
       <c r="M9" t="n">
-        <v>6.224592055227049</v>
+        <v>6.216923660135972</v>
       </c>
       <c r="N9" t="n">
-        <v>67.41952416759368</v>
+        <v>67.08040534473214</v>
       </c>
       <c r="O9" t="n">
-        <v>8.210939298740046</v>
+        <v>8.190262837341189</v>
       </c>
       <c r="P9" t="n">
-        <v>360.5476098288505</v>
+        <v>360.4615222096558</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31794,28 +32250,28 @@
         <v>0.1384</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3467040829957629</v>
+        <v>0.3551480910217424</v>
       </c>
       <c r="J10" t="n">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="K10" t="n">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07943399356390346</v>
+        <v>0.08512756177315217</v>
       </c>
       <c r="M10" t="n">
-        <v>6.711511797281356</v>
+        <v>6.660691604474072</v>
       </c>
       <c r="N10" t="n">
-        <v>77.26524038597717</v>
+        <v>76.4760784645206</v>
       </c>
       <c r="O10" t="n">
-        <v>8.790064868132497</v>
+        <v>8.745060232183686</v>
       </c>
       <c r="P10" t="n">
-        <v>359.3362740087858</v>
+        <v>359.2549825231507</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31872,28 +32328,28 @@
         <v>0.0969</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2969787848517048</v>
+        <v>0.3093360242871361</v>
       </c>
       <c r="J11" t="n">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="K11" t="n">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05501720773580288</v>
+        <v>0.06056900141987398</v>
       </c>
       <c r="M11" t="n">
-        <v>7.131907236459393</v>
+        <v>7.123117547987507</v>
       </c>
       <c r="N11" t="n">
-        <v>84.36448725882748</v>
+        <v>84.02433809361042</v>
       </c>
       <c r="O11" t="n">
-        <v>9.18501427646291</v>
+        <v>9.166479045610174</v>
       </c>
       <c r="P11" t="n">
-        <v>358.164894997627</v>
+        <v>358.0460851838454</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31950,28 +32406,28 @@
         <v>0.0839</v>
       </c>
       <c r="I12" t="n">
-        <v>0.400964974458024</v>
+        <v>0.4130512685408048</v>
       </c>
       <c r="J12" t="n">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="K12" t="n">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08488639516915042</v>
+        <v>0.09163054245290281</v>
       </c>
       <c r="M12" t="n">
-        <v>7.629990707700459</v>
+        <v>7.592092977954803</v>
       </c>
       <c r="N12" t="n">
-        <v>96.23461361828438</v>
+        <v>95.4627944052253</v>
       </c>
       <c r="O12" t="n">
-        <v>9.809924241210243</v>
+        <v>9.770506353573765</v>
       </c>
       <c r="P12" t="n">
-        <v>362.4108639323823</v>
+        <v>362.2944804957558</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32028,28 +32484,28 @@
         <v>0.0757</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3649664595390598</v>
+        <v>0.4042572791571583</v>
       </c>
       <c r="J13" t="n">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="K13" t="n">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07283480696148281</v>
+        <v>0.0862125522984013</v>
       </c>
       <c r="M13" t="n">
-        <v>7.473653371909516</v>
+        <v>7.572466057025968</v>
       </c>
       <c r="N13" t="n">
-        <v>93.77441515424466</v>
+        <v>97.62861926333689</v>
       </c>
       <c r="O13" t="n">
-        <v>9.683719076586467</v>
+        <v>9.880719572143361</v>
       </c>
       <c r="P13" t="n">
-        <v>360.5983224100515</v>
+        <v>360.2187465132818</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32106,28 +32562,28 @@
         <v>0.0757</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2258505256465028</v>
+        <v>0.24986701592052</v>
       </c>
       <c r="J14" t="n">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="K14" t="n">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02397698245328683</v>
+        <v>0.02978639445214049</v>
       </c>
       <c r="M14" t="n">
-        <v>7.914682093811434</v>
+        <v>7.916554725693608</v>
       </c>
       <c r="N14" t="n">
-        <v>115.0430856162789</v>
+        <v>114.7263574028391</v>
       </c>
       <c r="O14" t="n">
-        <v>10.7258139838559</v>
+        <v>10.71103904403485</v>
       </c>
       <c r="P14" t="n">
-        <v>364.0580524970338</v>
+        <v>363.8241778133705</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32184,28 +32640,28 @@
         <v>0.0567</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2329453239443844</v>
+        <v>0.1992444245573326</v>
       </c>
       <c r="J15" t="n">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="K15" t="n">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00959123634425374</v>
+        <v>0.007030431594632791</v>
       </c>
       <c r="M15" t="n">
-        <v>13.88823185789856</v>
+        <v>14.05675241607181</v>
       </c>
       <c r="N15" t="n">
-        <v>299.099243212545</v>
+        <v>307.1635890285402</v>
       </c>
       <c r="O15" t="n">
-        <v>17.29448591929072</v>
+        <v>17.52608310571818</v>
       </c>
       <c r="P15" t="n">
-        <v>393.8739303238173</v>
+        <v>394.1997497526625</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -32243,7 +32699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P522"/>
+  <dimension ref="A1:P530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67820,8 +68276,552 @@
           <t>-34.83481142717159,173.41759082750107</t>
         </is>
       </c>
-      <c r="O522" t="inlineStr"/>
+      <c r="O522" t="inlineStr">
+        <is>
+          <t>-34.834869836949316,173.41852487432462</t>
+        </is>
+      </c>
       <c r="P522" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr"/>
+      <c r="C523" t="inlineStr"/>
+      <c r="D523" t="inlineStr"/>
+      <c r="E523" t="inlineStr"/>
+      <c r="F523" t="inlineStr"/>
+      <c r="G523" t="inlineStr"/>
+      <c r="H523" t="inlineStr"/>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="inlineStr"/>
+      <c r="M523" t="inlineStr">
+        <is>
+          <t>-34.83434059589208,173.41677404188007</t>
+        </is>
+      </c>
+      <c r="N523" t="inlineStr">
+        <is>
+          <t>-34.83474446667106,173.4175865865789</t>
+        </is>
+      </c>
+      <c r="O523" t="inlineStr">
+        <is>
+          <t>-34.834570125351505,173.41843579755556</t>
+        </is>
+      </c>
+      <c r="P523" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>-34.82960848506319,173.41126599796812</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>-34.83028107950375,173.41103795861065</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>-34.83095531690476,173.41104195489578</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>-34.83163444227906,173.4112877111045</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>-34.832277529811314,173.41161431543932</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>-34.8328971936555,173.41201525307625</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>-34.83340033843448,173.41264005588712</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>-34.833803431839215,173.41336966707448</t>
+        </is>
+      </c>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>-34.83419322980491,173.414114959355</t>
+        </is>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>-34.834364296594416,173.414976017893</t>
+        </is>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>-34.83446324790347,173.4158559180124</t>
+        </is>
+      </c>
+      <c r="M524" t="inlineStr">
+        <is>
+          <t>-34.83453680152367,173.41674031481102</t>
+        </is>
+      </c>
+      <c r="N524" t="inlineStr">
+        <is>
+          <t>-34.83464113780465,173.41758004229237</t>
+        </is>
+      </c>
+      <c r="O524" t="inlineStr">
+        <is>
+          <t>-34.83425640026281,173.41834255659097</t>
+        </is>
+      </c>
+      <c r="P524" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>-34.829613741967464,173.41128554403033</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>-34.83028267657479,173.41105343427304</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>-34.83095599928685,173.4110365699632</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>-34.831632783066105,173.41129412058567</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>-34.832291608226946,173.4115826662704</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>-34.832876280660145,173.41204320030943</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>-34.833411894856646,173.41262868977907</t>
+        </is>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>-34.83383707212934,173.41334421550047</t>
+        </is>
+      </c>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>-34.83418579205178,173.41411861593306</t>
+        </is>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>-34.834347149503124,173.41498172213656</t>
+        </is>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>-34.834475649409185,173.41585305269996</t>
+        </is>
+      </c>
+      <c r="M525" t="inlineStr">
+        <is>
+          <t>-34.83456265531022,173.4167358706228</t>
+        </is>
+      </c>
+      <c r="N525" t="inlineStr">
+        <is>
+          <t>-34.83467576944189,173.4175822356693</t>
+        </is>
+      </c>
+      <c r="O525" t="inlineStr">
+        <is>
+          <t>-34.834300016989225,173.41835551969712</t>
+        </is>
+      </c>
+      <c r="P525" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:17:32+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>-34.829588100548065,173.4111902050159</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>-34.830267301023056,173.41090444557096</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>-34.83096799447919,173.41094191108772</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>-34.831656162502966,173.41120380650003</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>-34.83230250577133,173.41155816788122</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>-34.83291696623664,173.41198882982306</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>-34.83347275866257,173.41256882822424</t>
+        </is>
+      </c>
+      <c r="I526" t="inlineStr">
+        <is>
+          <t>-34.83388626721858,173.41330699543062</t>
+        </is>
+      </c>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>-34.834219972287094,173.41410181210264</t>
+        </is>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>-34.83447207465038,173.41494016381</t>
+        </is>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>-34.83458655429917,173.41582742858262</t>
+        </is>
+      </c>
+      <c r="M526" t="inlineStr">
+        <is>
+          <t>-34.83464841794324,173.41672112826436</t>
+        </is>
+      </c>
+      <c r="N526" t="inlineStr">
+        <is>
+          <t>-34.83481792381953,173.41759123896463</t>
+        </is>
+      </c>
+      <c r="O526" t="inlineStr">
+        <is>
+          <t>-34.83460585952657,173.4184464180126</t>
+        </is>
+      </c>
+      <c r="P526" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr"/>
+      <c r="C527" t="inlineStr"/>
+      <c r="D527" t="inlineStr"/>
+      <c r="E527" t="inlineStr"/>
+      <c r="F527" t="inlineStr"/>
+      <c r="G527" t="inlineStr"/>
+      <c r="H527" t="inlineStr"/>
+      <c r="I527" t="inlineStr">
+        <is>
+          <t>-34.8337687851597,173.41339588003683</t>
+        </is>
+      </c>
+      <c r="J527" t="inlineStr">
+        <is>
+          <t>-34.83411149808452,173.41415514059284</t>
+        </is>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>-34.834343302661594,173.41498300184716</t>
+        </is>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>-34.83448849382571,173.41585008505402</t>
+        </is>
+      </c>
+      <c r="M527" t="inlineStr">
+        <is>
+          <t>-34.834544990044144,173.41673890722925</t>
+        </is>
+      </c>
+      <c r="N527" t="inlineStr">
+        <is>
+          <t>-34.83466488594819,173.4175815463686</t>
+        </is>
+      </c>
+      <c r="O527" t="inlineStr">
+        <is>
+          <t>-34.834263231798396,173.41834458695607</t>
+        </is>
+      </c>
+      <c r="P527" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>-34.82957546156558,173.4111432113247</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>-34.83026181543264,173.41085129078226</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>-34.83097471489271,173.41088887734227</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>-34.831671218840384,173.41114564414187</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>-34.8323098421556,173.4115416752019</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>-34.83292616662771,173.41197653479705</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>-34.83347268862369,173.41256889710985</t>
+        </is>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>-34.833896743022684,173.41329906962946</t>
+        </is>
+      </c>
+      <c r="J528" t="inlineStr">
+        <is>
+          <t>-34.83417910643089,173.41412190274426</t>
+        </is>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>-34.83446488740082,173.4149425547658</t>
+        </is>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>-34.83453119043723,173.41584022018316</t>
+        </is>
+      </c>
+      <c r="M528" t="inlineStr">
+        <is>
+          <t>-34.8347293465407,173.41670721683553</t>
+        </is>
+      </c>
+      <c r="N528" t="inlineStr">
+        <is>
+          <t>-34.83477590787451,173.41758857789665</t>
+        </is>
+      </c>
+      <c r="O528" t="inlineStr">
+        <is>
+          <t>-34.83439119170674,173.4183826173193</t>
+        </is>
+      </c>
+      <c r="P528" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:08+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>-34.829503430201356,173.41087538914329</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>-34.83025018604179,173.4107386039883</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>-34.83098980803311,173.41076977002294</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr"/>
+      <c r="F529" t="inlineStr"/>
+      <c r="G529" t="inlineStr"/>
+      <c r="H529" t="inlineStr"/>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
+      <c r="L529" t="inlineStr"/>
+      <c r="M529" t="inlineStr"/>
+      <c r="N529" t="inlineStr"/>
+      <c r="O529" t="inlineStr"/>
+      <c r="P529" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>-34.82955172148048,173.41105494223962</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>-34.83026392249479,173.41087170796317</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>-34.83097778557982,173.41086464513324</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>-34.83167569097627,173.41112836833736</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>-34.83232134161238,173.411515823643</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>-34.832905022254074,173.4120047912659</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>-34.833432066063715,173.41260885074647</t>
+        </is>
+      </c>
+      <c r="I530" t="inlineStr">
+        <is>
+          <t>-34.833865445085074,173.41332274906765</t>
+        </is>
+      </c>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>-34.83419387051022,173.41411464436882</t>
+        </is>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>-34.83445519868141,173.4149457778756</t>
+        </is>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>-34.834553837947894,173.41583498756776</t>
+        </is>
+      </c>
+      <c r="M530" t="inlineStr">
+        <is>
+          <t>-34.83469145231514,173.41671373076397</t>
+        </is>
+      </c>
+      <c r="N530" t="inlineStr">
+        <is>
+          <t>-34.834738317368576,173.4175861971151</t>
+        </is>
+      </c>
+      <c r="O530" t="inlineStr">
+        <is>
+          <t>-34.83417415908102,173.4183181141455</t>
+        </is>
+      </c>
+      <c r="P530" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0026/nzd0026.xlsx
+++ b/data/nzd0026/nzd0026.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P530"/>
+  <dimension ref="A1:P535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25414,6 +25414,276 @@
         </is>
       </c>
     </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:48+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>366.82</v>
+      </c>
+      <c r="C531" t="n">
+        <v>383.6769230769231</v>
+      </c>
+      <c r="D531" t="n">
+        <v>375.8181818181818</v>
+      </c>
+      <c r="E531" t="n">
+        <v>373.9814285714286</v>
+      </c>
+      <c r="F531" t="n">
+        <v>381.8758823529412</v>
+      </c>
+      <c r="G531" t="n">
+        <v>380.4790909090909</v>
+      </c>
+      <c r="H531" t="n">
+        <v>375.5</v>
+      </c>
+      <c r="I531" t="n">
+        <v>367.9284615384615</v>
+      </c>
+      <c r="J531" t="n">
+        <v>368.07</v>
+      </c>
+      <c r="K531" t="n">
+        <v>365.5158823529412</v>
+      </c>
+      <c r="L531" t="n">
+        <v>371.14</v>
+      </c>
+      <c r="M531" t="n">
+        <v>375.2914285714286</v>
+      </c>
+      <c r="N531" t="n">
+        <v>373.6614285714285</v>
+      </c>
+      <c r="O531" t="n">
+        <v>414.5</v>
+      </c>
+      <c r="P531" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>329.12</v>
+      </c>
+      <c r="C532" t="n">
+        <v>355.5692307692308</v>
+      </c>
+      <c r="D532" t="n">
+        <v>356.8527272727272</v>
+      </c>
+      <c r="E532" t="n">
+        <v>373.0014285714286</v>
+      </c>
+      <c r="F532" t="n">
+        <v>375.8176470588235</v>
+      </c>
+      <c r="G532" t="n">
+        <v>369.6363636363636</v>
+      </c>
+      <c r="H532" t="n">
+        <v>366.08</v>
+      </c>
+      <c r="I532" t="n">
+        <v>361.0746153846154</v>
+      </c>
+      <c r="J532" t="n">
+        <v>357.99</v>
+      </c>
+      <c r="K532" t="n">
+        <v>356.1676470588235</v>
+      </c>
+      <c r="L532" t="n">
+        <v>353.9299999999999</v>
+      </c>
+      <c r="M532" t="n">
+        <v>359.9814285714286</v>
+      </c>
+      <c r="N532" t="n">
+        <v>362.6014285714285</v>
+      </c>
+      <c r="O532" t="n">
+        <v>359.06</v>
+      </c>
+      <c r="P532" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>354.91</v>
+      </c>
+      <c r="C533" t="n">
+        <v>367.9792307692308</v>
+      </c>
+      <c r="D533" t="n">
+        <v>366.84</v>
+      </c>
+      <c r="E533" t="n">
+        <v>373.5857142857143</v>
+      </c>
+      <c r="F533" t="n">
+        <v>375.5764705882353</v>
+      </c>
+      <c r="G533" t="n">
+        <v>374.94</v>
+      </c>
+      <c r="H533" t="n">
+        <v>368.75</v>
+      </c>
+      <c r="I533" t="n">
+        <v>364.5146153846154</v>
+      </c>
+      <c r="J533" t="n">
+        <v>364.4866666666667</v>
+      </c>
+      <c r="K533" t="n">
+        <v>364.2864705882353</v>
+      </c>
+      <c r="L533" t="n">
+        <v>366.5066666666667</v>
+      </c>
+      <c r="M533" t="n">
+        <v>373.2157142857143</v>
+      </c>
+      <c r="N533" t="n">
+        <v>371.5757142857143</v>
+      </c>
+      <c r="O533" t="n">
+        <v>385.74</v>
+      </c>
+      <c r="P533" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>363.68</v>
+      </c>
+      <c r="C534" t="n">
+        <v>374.4730769230769</v>
+      </c>
+      <c r="D534" t="n">
+        <v>369.8236363636364</v>
+      </c>
+      <c r="E534" t="n">
+        <v>370.4428571428572</v>
+      </c>
+      <c r="F534" t="n">
+        <v>380.4770588235294</v>
+      </c>
+      <c r="G534" t="n">
+        <v>377.3418181818182</v>
+      </c>
+      <c r="H534" t="n">
+        <v>368.29</v>
+      </c>
+      <c r="I534" t="n">
+        <v>368.2515384615385</v>
+      </c>
+      <c r="J534" t="n">
+        <v>369.9633333333333</v>
+      </c>
+      <c r="K534" t="n">
+        <v>363.3270588235294</v>
+      </c>
+      <c r="L534" t="n">
+        <v>368.5033333333333</v>
+      </c>
+      <c r="M534" t="n">
+        <v>368.1928571428572</v>
+      </c>
+      <c r="N534" t="n">
+        <v>376.7028571428572</v>
+      </c>
+      <c r="O534" t="n">
+        <v>418.83</v>
+      </c>
+      <c r="P534" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>367.58</v>
+      </c>
+      <c r="C535" t="n">
+        <v>383.0584615384615</v>
+      </c>
+      <c r="D535" t="n">
+        <v>374.02</v>
+      </c>
+      <c r="E535" t="n">
+        <v>372.9628571428572</v>
+      </c>
+      <c r="F535" t="n">
+        <v>382.4494117647058</v>
+      </c>
+      <c r="G535" t="n">
+        <v>380.34</v>
+      </c>
+      <c r="H535" t="n">
+        <v>374.08</v>
+      </c>
+      <c r="I535" t="n">
+        <v>368.7992307692308</v>
+      </c>
+      <c r="J535" t="n">
+        <v>369.5166666666667</v>
+      </c>
+      <c r="K535" t="n">
+        <v>368.3094117647058</v>
+      </c>
+      <c r="L535" t="n">
+        <v>371.9566666666667</v>
+      </c>
+      <c r="M535" t="n">
+        <v>373.6528571428572</v>
+      </c>
+      <c r="N535" t="n">
+        <v>369.9828571428571</v>
+      </c>
+      <c r="O535" t="n">
+        <v>412.03</v>
+      </c>
+      <c r="P535" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25425,7 +25695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B602"/>
+  <dimension ref="A1:B607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31453,6 +31723,56 @@
       </c>
       <c r="B602" t="n">
         <v>-0.16</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>-0.55</v>
       </c>
     </row>
   </sheetData>
@@ -31626,28 +31946,28 @@
         <v>0.0427</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2887418461922608</v>
+        <v>0.2555888357564731</v>
       </c>
       <c r="J2" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="K2" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02456955641215286</v>
+        <v>0.01940922958863089</v>
       </c>
       <c r="M2" t="n">
-        <v>10.56314499198472</v>
+        <v>10.59150633005195</v>
       </c>
       <c r="N2" t="n">
-        <v>185.5824251850718</v>
+        <v>187.9828756151701</v>
       </c>
       <c r="O2" t="n">
-        <v>13.6228640595534</v>
+        <v>13.71068472451942</v>
       </c>
       <c r="P2" t="n">
-        <v>361.8916314561658</v>
+        <v>362.2103248363667</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31704,28 +32024,28 @@
         <v>0.0709</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1943315880218513</v>
+        <v>0.1894443160780999</v>
       </c>
       <c r="J3" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="K3" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02190581755571763</v>
+        <v>0.02110232650840216</v>
       </c>
       <c r="M3" t="n">
-        <v>7.580895161640091</v>
+        <v>7.596009605247034</v>
       </c>
       <c r="N3" t="n">
-        <v>92.64555128453188</v>
+        <v>92.90686499756109</v>
       </c>
       <c r="O3" t="n">
-        <v>9.625255907482765</v>
+        <v>9.63882072649767</v>
       </c>
       <c r="P3" t="n">
-        <v>369.8605638469409</v>
+        <v>369.9082387292067</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31782,28 +32102,28 @@
         <v>0.0611</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2006016806314231</v>
+        <v>0.195064956435174</v>
       </c>
       <c r="J4" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="K4" t="n">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02165454467086236</v>
+        <v>0.02093491887879961</v>
       </c>
       <c r="M4" t="n">
-        <v>7.851789929547499</v>
+        <v>7.820289645691383</v>
       </c>
       <c r="N4" t="n">
-        <v>100.3065277309642</v>
+        <v>99.67040136647603</v>
       </c>
       <c r="O4" t="n">
-        <v>10.01531465960826</v>
+        <v>9.983506466491422</v>
       </c>
       <c r="P4" t="n">
-        <v>365.7445368300318</v>
+        <v>365.7983947930957</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31860,28 +32180,28 @@
         <v>0.0772</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2634822170104056</v>
+        <v>0.2535063461203606</v>
       </c>
       <c r="J5" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="K5" t="n">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03589112473187317</v>
+        <v>0.03414507501498876</v>
       </c>
       <c r="M5" t="n">
-        <v>7.84375427329758</v>
+        <v>7.793134437169216</v>
       </c>
       <c r="N5" t="n">
-        <v>104.1040961655122</v>
+        <v>102.9900245993802</v>
       </c>
       <c r="O5" t="n">
-        <v>10.20314148512664</v>
+        <v>10.14840010047792</v>
       </c>
       <c r="P5" t="n">
-        <v>370.0356932348969</v>
+        <v>370.1325014625927</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31938,28 +32258,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2341516106190447</v>
+        <v>0.2282476471566718</v>
       </c>
       <c r="J6" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="K6" t="n">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03099785400925936</v>
+        <v>0.03021866095632098</v>
       </c>
       <c r="M6" t="n">
-        <v>7.23450951151025</v>
+        <v>7.175877487170629</v>
       </c>
       <c r="N6" t="n">
-        <v>96.72015515784982</v>
+        <v>95.68902924458254</v>
       </c>
       <c r="O6" t="n">
-        <v>9.834640570852084</v>
+        <v>9.782076939207876</v>
       </c>
       <c r="P6" t="n">
-        <v>375.6668243321196</v>
+        <v>375.7238282413252</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32016,28 +32336,28 @@
         <v>0.1267</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3657057112310205</v>
+        <v>0.3629874494700535</v>
       </c>
       <c r="J7" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="K7" t="n">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08596546059528465</v>
+        <v>0.08669925368223874</v>
       </c>
       <c r="M7" t="n">
-        <v>6.718337909784396</v>
+        <v>6.676290079093242</v>
       </c>
       <c r="N7" t="n">
-        <v>79.86747923394631</v>
+        <v>79.10789748657052</v>
       </c>
       <c r="O7" t="n">
-        <v>8.936860703510282</v>
+        <v>8.894262054075678</v>
       </c>
       <c r="P7" t="n">
-        <v>368.259934707709</v>
+        <v>368.285964317983</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32094,28 +32414,28 @@
         <v>0.1452</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2979282006067713</v>
+        <v>0.3019318767285549</v>
       </c>
       <c r="J8" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="K8" t="n">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05337367995935638</v>
+        <v>0.05601460332108577</v>
       </c>
       <c r="M8" t="n">
-        <v>7.013774797567207</v>
+        <v>6.966022229747325</v>
       </c>
       <c r="N8" t="n">
-        <v>87.69818922199666</v>
+        <v>86.82388838661117</v>
       </c>
       <c r="O8" t="n">
-        <v>9.364731134527924</v>
+        <v>9.317933697264172</v>
       </c>
       <c r="P8" t="n">
-        <v>361.1566193591475</v>
+        <v>361.1178812891173</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32172,28 +32492,28 @@
         <v>0.1496</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3591929457834716</v>
+        <v>0.3507121350451671</v>
       </c>
       <c r="J9" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="K9" t="n">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0967308319102208</v>
+        <v>0.09452759213722561</v>
       </c>
       <c r="M9" t="n">
-        <v>6.216923660135972</v>
+        <v>6.177509153155586</v>
       </c>
       <c r="N9" t="n">
-        <v>67.08040534473214</v>
+        <v>66.52203374290434</v>
       </c>
       <c r="O9" t="n">
-        <v>8.190262837341189</v>
+        <v>8.156104078719467</v>
       </c>
       <c r="P9" t="n">
-        <v>360.4615222096558</v>
+        <v>360.5440392673922</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32250,28 +32570,28 @@
         <v>0.1384</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3551480910217424</v>
+        <v>0.3495437181236622</v>
       </c>
       <c r="J10" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="K10" t="n">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08512756177315217</v>
+        <v>0.08434606229934138</v>
       </c>
       <c r="M10" t="n">
-        <v>6.660691604474072</v>
+        <v>6.623493730671253</v>
       </c>
       <c r="N10" t="n">
-        <v>76.4760784645206</v>
+        <v>75.84958083128468</v>
       </c>
       <c r="O10" t="n">
-        <v>8.745060232183686</v>
+        <v>8.709166483153522</v>
       </c>
       <c r="P10" t="n">
-        <v>359.2549825231507</v>
+        <v>359.3092469258063</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32328,28 +32648,28 @@
         <v>0.0969</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3093360242871361</v>
+        <v>0.3036027752142153</v>
       </c>
       <c r="J11" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="K11" t="n">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06056900141987398</v>
+        <v>0.05969959177302731</v>
       </c>
       <c r="M11" t="n">
-        <v>7.123117547987507</v>
+        <v>7.076831324504672</v>
       </c>
       <c r="N11" t="n">
-        <v>84.02433809361042</v>
+        <v>83.27423054273341</v>
       </c>
       <c r="O11" t="n">
-        <v>9.166479045610174</v>
+        <v>9.125471524405377</v>
       </c>
       <c r="P11" t="n">
-        <v>358.0460851838454</v>
+        <v>358.1016790241635</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32406,28 +32726,28 @@
         <v>0.0839</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4130512685408048</v>
+        <v>0.3982214667198244</v>
       </c>
       <c r="J12" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="K12" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="L12" t="n">
-        <v>0.09163054245290281</v>
+        <v>0.08686519054588149</v>
       </c>
       <c r="M12" t="n">
-        <v>7.592092977954803</v>
+        <v>7.585693605920016</v>
       </c>
       <c r="N12" t="n">
-        <v>95.4627944052253</v>
+        <v>95.3244681835274</v>
       </c>
       <c r="O12" t="n">
-        <v>9.770506353573765</v>
+        <v>9.763425023193829</v>
       </c>
       <c r="P12" t="n">
-        <v>362.2944804957558</v>
+        <v>362.4384041247487</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32484,28 +32804,28 @@
         <v>0.0757</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4042572791571583</v>
+        <v>0.4029297748334227</v>
       </c>
       <c r="J13" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="K13" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0862125522984013</v>
+        <v>0.08736091188016293</v>
       </c>
       <c r="M13" t="n">
-        <v>7.572466057025968</v>
+        <v>7.537335897868468</v>
       </c>
       <c r="N13" t="n">
-        <v>97.62861926333689</v>
+        <v>96.82869783206148</v>
       </c>
       <c r="O13" t="n">
-        <v>9.880719572143361</v>
+        <v>9.840157408906704</v>
       </c>
       <c r="P13" t="n">
-        <v>360.2187465132818</v>
+        <v>360.2317011520323</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32562,28 +32882,28 @@
         <v>0.0757</v>
       </c>
       <c r="I14" t="n">
-        <v>0.24986701592052</v>
+        <v>0.2512922681188319</v>
       </c>
       <c r="J14" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="K14" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02978639445214049</v>
+        <v>0.0307666821159307</v>
       </c>
       <c r="M14" t="n">
-        <v>7.916554725693608</v>
+        <v>7.866786474654322</v>
       </c>
       <c r="N14" t="n">
-        <v>114.7263574028391</v>
+        <v>113.6119141833575</v>
       </c>
       <c r="O14" t="n">
-        <v>10.71103904403485</v>
+        <v>10.65888897509293</v>
       </c>
       <c r="P14" t="n">
-        <v>363.8241778133705</v>
+        <v>363.8101784113153</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32640,28 +32960,28 @@
         <v>0.0567</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1992444245573326</v>
+        <v>0.196013800674944</v>
       </c>
       <c r="J15" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="K15" t="n">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="L15" t="n">
-        <v>0.007030431594632791</v>
+        <v>0.006851014126849964</v>
       </c>
       <c r="M15" t="n">
-        <v>14.05675241607181</v>
+        <v>14.13798649366674</v>
       </c>
       <c r="N15" t="n">
-        <v>307.1635890285402</v>
+        <v>309.7944987722786</v>
       </c>
       <c r="O15" t="n">
-        <v>17.52608310571818</v>
+        <v>17.60098005147096</v>
       </c>
       <c r="P15" t="n">
-        <v>394.1997497526625</v>
+        <v>394.2312443780929</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -32699,7 +33019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P530"/>
+  <dimension ref="A1:P535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68827,6 +69147,416 @@
         </is>
       </c>
     </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:48+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>-34.829564416422116,173.41110214384074</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>-34.83027765018759,173.41100472850903</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>-34.830963502983714,173.41097735535178</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>-34.831667433536225,173.41116026671523</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>-34.8323041805726,173.4115544028174</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>-34.832882820103784,173.41203446127886</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>-34.833382968779766,173.41265713948604</t>
+        </is>
+      </c>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>-34.83387899300825,173.41331249896328</t>
+        </is>
+      </c>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>-34.83420662890293,173.4141083720348</t>
+        </is>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>-34.834448517864274,173.41494800035744</t>
+        </is>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>-34.834568867390935,173.41583151507442</t>
+        </is>
+      </c>
+      <c r="M531" t="inlineStr">
+        <is>
+          <t>-34.83463978300841,173.41672261258702</t>
+        </is>
+      </c>
+      <c r="N531" t="inlineStr">
+        <is>
+          <t>-34.834755543134335,173.41758728810265</t>
+        </is>
+      </c>
+      <c r="O531" t="inlineStr">
+        <is>
+          <t>-34.83422758519558,173.41833399261884</t>
+        </is>
+      </c>
+      <c r="P531" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>-34.82945899751487,173.41071018384275</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>-34.83024617344694,173.4106997228779</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>-34.830989480545206,173.41077235439968</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>-34.831670080548285,173.41115004134807</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>-34.83233011857035,173.41149609243297</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>-34.83294852853113,173.41194665124638</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>-34.83344894543937,173.41259224932634</t>
+        </is>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>-34.83393143087816,173.4132728254174</t>
+        </is>
+      </c>
+      <c r="J532" t="inlineStr">
+        <is>
+          <t>-34.834290867714486,173.41406695814803</t>
+        </is>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>-34.83452981307247,173.41492095616692</t>
+        </is>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>-34.8347213173138,173.41579629205137</t>
+        </is>
+      </c>
+      <c r="M532" t="inlineStr">
+        <is>
+          <t>-34.834776475171196,173.41669911552637</t>
+        </is>
+      </c>
+      <c r="N532" t="inlineStr">
+        <is>
+          <t>-34.83485514125001,173.41759359612252</t>
+        </is>
+      </c>
+      <c r="O532" t="inlineStr">
+        <is>
+          <t>-34.834713149628335,173.41847830547016</t>
+        </is>
+      </c>
+      <c r="P532" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>-34.829531113132866,173.4109783176445</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>-34.830260071030686,173.4108343877612</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>-34.83097580071612,173.41088030861326</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>-34.83166850237355,173.4111561378134</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>-34.83233115115341,173.41149377111387</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>-34.8329163877689,173.4119896028635</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>-34.8334302450521,173.41261064177064</t>
+        </is>
+      </c>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>-34.83390511189502,173.4132927378925</t>
+        </is>
+      </c>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>-34.83423657491071,173.41409364984588</t>
+        </is>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>-34.83445920921786,173.41494444370562</t>
+        </is>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>-34.83460991046655,173.4158220322277</t>
+        </is>
+      </c>
+      <c r="M533" t="inlineStr">
+        <is>
+          <t>-34.83465831559375,173.4167194268838</t>
+        </is>
+      </c>
+      <c r="N533" t="inlineStr">
+        <is>
+          <t>-34.83477432552262,173.41758847767892</t>
+        </is>
+      </c>
+      <c r="O533" t="inlineStr">
+        <is>
+          <t>-34.83447947615198,173.41840885599694</t>
+        </is>
+      </c>
+      <c r="P533" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>-34.829555636222146,173.4110694977979</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>-34.830267343233075,173.4109048545824</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>-34.83097171393269,173.41091255926415</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>-34.831676991329395,173.41112334508756</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>-34.832310169560266,173.41154093917427</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>-34.832901832417036,173.41200905403053</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>-34.83343346684186,173.4126074730355</t>
+        </is>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>-34.83387652118913,173.41331436909553</t>
+        </is>
+      </c>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>-34.83419080626737,173.41411615082433</t>
+        </is>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>-34.83446755256597,173.41494166815517</t>
+        </is>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>-34.834592223558545,173.41582611872178</t>
+        </is>
+      </c>
+      <c r="M534" t="inlineStr">
+        <is>
+          <t>-34.834703161133476,173.4167117180462</t>
+        </is>
+      </c>
+      <c r="N534" t="inlineStr">
+        <is>
+          <t>-34.8347281542954,173.41758555344083</t>
+        </is>
+      </c>
+      <c r="O534" t="inlineStr">
+        <is>
+          <t>-34.8341896614129,173.41832272150364</t>
+        </is>
+      </c>
+      <c r="P534" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>-34.82956654156473,173.41111004543174</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>-34.83027695760417,173.41099801738108</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>-34.83096596602298,173.4109579184922</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>-34.83167018473096,173.4111496388919</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>-34.83230172503684,173.41155992302373</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>-34.832883663014336,173.4120333348494</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>-34.83339291430816,173.41264735774885</t>
+        </is>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>-34.83387233086716,173.4133175394147</t>
+        </is>
+      </c>
+      <c r="J535" t="inlineStr">
+        <is>
+          <t>-34.83419453907229,173.41411431568764</t>
+        </is>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>-34.83442422444843,173.4149560819519</t>
+        </is>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>-34.83456163317967,173.41583318651047</t>
+        </is>
+      </c>
+      <c r="M535" t="inlineStr">
+        <is>
+          <t>-34.83465441265425,173.41672009778904</t>
+        </is>
+      </c>
+      <c r="N535" t="inlineStr">
+        <is>
+          <t>-34.83478866960677,173.41758938615703</t>
+        </is>
+      </c>
+      <c r="O535" t="inlineStr">
+        <is>
+          <t>-34.834249218392024,173.41834042210496</t>
+        </is>
+      </c>
+      <c r="P535" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0026/nzd0026.xlsx
+++ b/data/nzd0026/nzd0026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P535"/>
+  <dimension ref="A1:P536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25684,6 +25684,58 @@
         </is>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>362.78</v>
+      </c>
+      <c r="C536" t="n">
+        <v>364.6161538461538</v>
+      </c>
+      <c r="D536" t="n">
+        <v>362.07</v>
+      </c>
+      <c r="E536" t="n">
+        <v>362.9314285714286</v>
+      </c>
+      <c r="F536" t="n">
+        <v>369.2352941176471</v>
+      </c>
+      <c r="G536" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="H536" t="n">
+        <v>359.59</v>
+      </c>
+      <c r="I536" t="n">
+        <v>361.6730769230769</v>
+      </c>
+      <c r="J536" t="n">
+        <v>360.61</v>
+      </c>
+      <c r="K536" t="n">
+        <v>355.6452941176471</v>
+      </c>
+      <c r="L536" t="n">
+        <v>358.6</v>
+      </c>
+      <c r="M536" t="n">
+        <v>359.5814285714285</v>
+      </c>
+      <c r="N536" t="n">
+        <v>360.6214285714286</v>
+      </c>
+      <c r="O536" t="inlineStr"/>
+      <c r="P536" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25695,7 +25747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B607"/>
+  <dimension ref="A1:B608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31773,6 +31825,16 @@
       </c>
       <c r="B607" t="n">
         <v>-0.55</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -31946,28 +32008,28 @@
         <v>0.0427</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2555888357564731</v>
+        <v>0.2524967979359787</v>
       </c>
       <c r="J2" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K2" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01940922958863089</v>
+        <v>0.01904781825352087</v>
       </c>
       <c r="M2" t="n">
-        <v>10.59150633005195</v>
+        <v>10.57917848699785</v>
       </c>
       <c r="N2" t="n">
-        <v>187.9828756151701</v>
+        <v>187.5813088060528</v>
       </c>
       <c r="O2" t="n">
-        <v>13.71068472451942</v>
+        <v>13.69603259364013</v>
       </c>
       <c r="P2" t="n">
-        <v>362.2103248363667</v>
+        <v>362.2401391941175</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32024,28 +32086,28 @@
         <v>0.0709</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1894443160780999</v>
+        <v>0.1842772357486611</v>
       </c>
       <c r="J3" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K3" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02110232650840216</v>
+        <v>0.02004312174134582</v>
       </c>
       <c r="M3" t="n">
-        <v>7.596009605247034</v>
+        <v>7.603279507433169</v>
       </c>
       <c r="N3" t="n">
-        <v>92.90686499756109</v>
+        <v>92.93302129004667</v>
       </c>
       <c r="O3" t="n">
-        <v>9.63882072649767</v>
+        <v>9.640177451170008</v>
       </c>
       <c r="P3" t="n">
-        <v>369.9082387292067</v>
+        <v>369.9588015998261</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32102,28 +32164,28 @@
         <v>0.0611</v>
       </c>
       <c r="I4" t="n">
-        <v>0.195064956435174</v>
+        <v>0.1907575213701035</v>
       </c>
       <c r="J4" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K4" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02093491887879961</v>
+        <v>0.02010786977185131</v>
       </c>
       <c r="M4" t="n">
-        <v>7.820289645691383</v>
+        <v>7.821704414103388</v>
       </c>
       <c r="N4" t="n">
-        <v>99.67040136647603</v>
+        <v>99.61199963616775</v>
       </c>
       <c r="O4" t="n">
-        <v>9.983506466491422</v>
+        <v>9.980581127177302</v>
       </c>
       <c r="P4" t="n">
-        <v>365.7983947930957</v>
+        <v>365.8404165687625</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32180,28 +32242,28 @@
         <v>0.0772</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2535063461203606</v>
+        <v>0.2467310498863627</v>
       </c>
       <c r="J5" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K5" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03414507501498876</v>
+        <v>0.03242625659392118</v>
       </c>
       <c r="M5" t="n">
-        <v>7.793134437169216</v>
+        <v>7.806892927403153</v>
       </c>
       <c r="N5" t="n">
-        <v>102.9900245993802</v>
+        <v>103.2068670935532</v>
       </c>
       <c r="O5" t="n">
-        <v>10.14840010047792</v>
+        <v>10.15907806316859</v>
       </c>
       <c r="P5" t="n">
-        <v>370.1325014625927</v>
+        <v>370.1984311278989</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32258,28 +32320,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2282476471566718</v>
+        <v>0.2223345565418456</v>
       </c>
       <c r="J6" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K6" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03021866095632098</v>
+        <v>0.02875242321179794</v>
       </c>
       <c r="M6" t="n">
-        <v>7.175877487170629</v>
+        <v>7.185427540703591</v>
       </c>
       <c r="N6" t="n">
-        <v>95.68902924458254</v>
+        <v>95.83110471873495</v>
       </c>
       <c r="O6" t="n">
-        <v>9.782076939207876</v>
+        <v>9.789336275699949</v>
       </c>
       <c r="P6" t="n">
-        <v>375.7238282413252</v>
+        <v>375.7811000134681</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32336,28 +32398,28 @@
         <v>0.1267</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3629874494700535</v>
+        <v>0.3579953027522979</v>
       </c>
       <c r="J7" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K7" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08669925368223874</v>
+        <v>0.08467579005224823</v>
       </c>
       <c r="M7" t="n">
-        <v>6.676290079093242</v>
+        <v>6.684613463562122</v>
       </c>
       <c r="N7" t="n">
-        <v>79.10789748657052</v>
+        <v>79.1852098694653</v>
       </c>
       <c r="O7" t="n">
-        <v>8.894262054075678</v>
+        <v>8.898607187052662</v>
       </c>
       <c r="P7" t="n">
-        <v>368.285964317983</v>
+        <v>368.3339180811382</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32414,28 +32476,28 @@
         <v>0.1452</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3019318767285549</v>
+        <v>0.2975288022679907</v>
       </c>
       <c r="J8" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K8" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05601460332108577</v>
+        <v>0.05462539906230357</v>
       </c>
       <c r="M8" t="n">
-        <v>6.966022229747325</v>
+        <v>6.971267914516028</v>
       </c>
       <c r="N8" t="n">
-        <v>86.82388838661117</v>
+        <v>86.8231480363695</v>
       </c>
       <c r="O8" t="n">
-        <v>9.317933697264172</v>
+        <v>9.317893970011115</v>
       </c>
       <c r="P8" t="n">
-        <v>361.1178812891173</v>
+        <v>361.1606215746896</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32492,28 +32554,28 @@
         <v>0.1496</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3507121350451671</v>
+        <v>0.3469939756684373</v>
       </c>
       <c r="J9" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K9" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09452759213722561</v>
+        <v>0.09295886566925216</v>
       </c>
       <c r="M9" t="n">
-        <v>6.177509153155586</v>
+        <v>6.178661352850158</v>
       </c>
       <c r="N9" t="n">
-        <v>66.52203374290434</v>
+        <v>66.51251178054102</v>
       </c>
       <c r="O9" t="n">
-        <v>8.156104078719467</v>
+        <v>8.155520325555017</v>
       </c>
       <c r="P9" t="n">
-        <v>360.5440392673922</v>
+        <v>360.5803287471166</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32570,28 +32632,28 @@
         <v>0.1384</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3495437181236622</v>
+        <v>0.345953854523912</v>
       </c>
       <c r="J10" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K10" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08434606229934138</v>
+        <v>0.08300458192483762</v>
       </c>
       <c r="M10" t="n">
-        <v>6.623493730671253</v>
+        <v>6.627535513627667</v>
       </c>
       <c r="N10" t="n">
-        <v>75.84958083128468</v>
+        <v>75.80950632979311</v>
       </c>
       <c r="O10" t="n">
-        <v>8.709166483153522</v>
+        <v>8.706865470982834</v>
       </c>
       <c r="P10" t="n">
-        <v>359.3092469258063</v>
+        <v>359.3441281405661</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32648,28 +32710,28 @@
         <v>0.0969</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3036027752142153</v>
+        <v>0.2988941284599128</v>
       </c>
       <c r="J11" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K11" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05969959177302731</v>
+        <v>0.05807195153931044</v>
       </c>
       <c r="M11" t="n">
-        <v>7.076831324504672</v>
+        <v>7.083616793923437</v>
       </c>
       <c r="N11" t="n">
-        <v>83.27423054273341</v>
+        <v>83.32815335661313</v>
       </c>
       <c r="O11" t="n">
-        <v>9.125471524405377</v>
+        <v>9.128425568333958</v>
       </c>
       <c r="P11" t="n">
-        <v>358.1016790241635</v>
+        <v>358.1474896054262</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32726,28 +32788,28 @@
         <v>0.0839</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3982214667198244</v>
+        <v>0.3918253378472447</v>
       </c>
       <c r="J12" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K12" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08686519054588149</v>
+        <v>0.08432666397026278</v>
       </c>
       <c r="M12" t="n">
-        <v>7.585693605920016</v>
+        <v>7.604002905359541</v>
       </c>
       <c r="N12" t="n">
-        <v>95.3244681835274</v>
+        <v>95.57113209458102</v>
       </c>
       <c r="O12" t="n">
-        <v>9.763425023193829</v>
+        <v>9.776048899968792</v>
       </c>
       <c r="P12" t="n">
-        <v>362.4384041247487</v>
+        <v>362.5006733827481</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32804,28 +32866,28 @@
         <v>0.0757</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4029297748334227</v>
+        <v>0.3979094448802138</v>
       </c>
       <c r="J13" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K13" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08736091188016293</v>
+        <v>0.08552885444097058</v>
       </c>
       <c r="M13" t="n">
-        <v>7.537335897868468</v>
+        <v>7.545745394809622</v>
       </c>
       <c r="N13" t="n">
-        <v>96.82869783206148</v>
+        <v>96.88860850599973</v>
       </c>
       <c r="O13" t="n">
-        <v>9.840157408906704</v>
+        <v>9.843201131034544</v>
       </c>
       <c r="P13" t="n">
-        <v>360.2317011520323</v>
+        <v>360.2808023021666</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32882,28 +32944,28 @@
         <v>0.0757</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2512922681188319</v>
+        <v>0.246942738134887</v>
       </c>
       <c r="J14" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K14" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0307666821159307</v>
+        <v>0.02982361017754998</v>
       </c>
       <c r="M14" t="n">
-        <v>7.866786474654322</v>
+        <v>7.871583538369243</v>
       </c>
       <c r="N14" t="n">
-        <v>113.6119141833575</v>
+        <v>113.5625808734968</v>
       </c>
       <c r="O14" t="n">
-        <v>10.65888897509293</v>
+        <v>10.65657453750955</v>
       </c>
       <c r="P14" t="n">
-        <v>363.8101784113153</v>
+        <v>363.8529954113108</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32963,7 +33025,7 @@
         <v>0.196013800674944</v>
       </c>
       <c r="J15" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K15" t="n">
         <v>396</v>
@@ -33019,7 +33081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P535"/>
+  <dimension ref="A1:P536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40980,7 +41042,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>-34.833883930761075,173.41330876315118</t>
+          <t>-34.83388393076108,173.41330876315118</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -47524,7 +47586,7 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>-34.83475832522781,173.41670223546328</t>
+          <t>-34.8347583252278,173.41670223546328</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
@@ -53926,7 +53988,7 @@
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>-34.83474122117001,173.4167051756134</t>
+          <t>-34.834741221170006,173.4167051756134</t>
         </is>
       </c>
       <c r="N315" t="inlineStr">
@@ -60757,7 +60819,7 @@
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>-34.83492322097346,173.417597907943</t>
+          <t>-34.834923220973465,173.417597907943</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -67007,7 +67069,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>-34.83423690919171,173.4140934855051</t>
+          <t>-34.834236909191716,173.4140934855051</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -69557,6 +69619,84 @@
         </is>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>-34.82955311960271,173.41106014065312</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>-34.830256304837285,173.41079789393245</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>-34.830982334321995,173.41082874883642</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>-34.83169727989816,173.41104497044515</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>-34.83235830051715,173.41143273738578</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>-34.83296389923657,173.41192611043718</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>-34.83349440067623,173.41254754256386</t>
+        </is>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>-34.833926852128634,173.41327628961903</t>
+        </is>
+      </c>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>-34.834268972310525,173.41407772247982</t>
+        </is>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>-34.83453435561852,173.41491944501252</t>
+        </is>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>-34.83467994943945,173.41580584996734</t>
+        </is>
+      </c>
+      <c r="M536" t="inlineStr">
+        <is>
+          <t>-34.834780046488206,173.41669850162435</t>
+        </is>
+      </c>
+      <c r="N536" t="inlineStr">
+        <is>
+          <t>-34.834872971653866,173.4175947254081</t>
+        </is>
+      </c>
+      <c r="O536" t="inlineStr"/>
+      <c r="P536" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0026/nzd0026.xlsx
+++ b/data/nzd0026/nzd0026.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P536"/>
+  <dimension ref="A1:P539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25736,6 +25736,152 @@
         </is>
       </c>
     </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr"/>
+      <c r="C537" t="inlineStr"/>
+      <c r="D537" t="inlineStr"/>
+      <c r="E537" t="inlineStr"/>
+      <c r="F537" t="n">
+        <v>349.2976470588235</v>
+      </c>
+      <c r="G537" t="n">
+        <v>359.0390909090909</v>
+      </c>
+      <c r="H537" t="n">
+        <v>342.81</v>
+      </c>
+      <c r="I537" t="n">
+        <v>354.8861538461539</v>
+      </c>
+      <c r="J537" t="n">
+        <v>346.7766666666667</v>
+      </c>
+      <c r="K537" t="n">
+        <v>342.1376470588235</v>
+      </c>
+      <c r="L537" t="n">
+        <v>352.9766666666667</v>
+      </c>
+      <c r="M537" t="inlineStr"/>
+      <c r="N537" t="inlineStr"/>
+      <c r="O537" t="inlineStr"/>
+      <c r="P537" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>356.32</v>
+      </c>
+      <c r="C538" t="n">
+        <v>368.8515384615384</v>
+      </c>
+      <c r="D538" t="n">
+        <v>367.84</v>
+      </c>
+      <c r="E538" t="n">
+        <v>376.8371428571429</v>
+      </c>
+      <c r="F538" t="n">
+        <v>380.1905882352942</v>
+      </c>
+      <c r="G538" t="n">
+        <v>376.03</v>
+      </c>
+      <c r="H538" t="n">
+        <v>372.18</v>
+      </c>
+      <c r="I538" t="n">
+        <v>371.0207692307693</v>
+      </c>
+      <c r="J538" t="n">
+        <v>367.9433333333333</v>
+      </c>
+      <c r="K538" t="n">
+        <v>367.1705882352941</v>
+      </c>
+      <c r="L538" t="n">
+        <v>366.7033333333333</v>
+      </c>
+      <c r="M538" t="n">
+        <v>375.2571428571428</v>
+      </c>
+      <c r="N538" t="n">
+        <v>371.7171428571429</v>
+      </c>
+      <c r="O538" t="n">
+        <v>398.58</v>
+      </c>
+      <c r="P538" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr"/>
+      <c r="C539" t="n">
+        <v>386.7523076923077</v>
+      </c>
+      <c r="D539" t="n">
+        <v>369.1509090909091</v>
+      </c>
+      <c r="E539" t="n">
+        <v>375.8342857142857</v>
+      </c>
+      <c r="F539" t="n">
+        <v>370.9188235294118</v>
+      </c>
+      <c r="G539" t="n">
+        <v>367.6354545454545</v>
+      </c>
+      <c r="H539" t="n">
+        <v>361.02</v>
+      </c>
+      <c r="I539" t="n">
+        <v>361.2161538461539</v>
+      </c>
+      <c r="J539" t="n">
+        <v>360.9</v>
+      </c>
+      <c r="K539" t="n">
+        <v>355.8688235294118</v>
+      </c>
+      <c r="L539" t="n">
+        <v>368.86</v>
+      </c>
+      <c r="M539" t="n">
+        <v>362.4242857142857</v>
+      </c>
+      <c r="N539" t="n">
+        <v>363.4842857142857</v>
+      </c>
+      <c r="O539" t="n">
+        <v>401.7</v>
+      </c>
+      <c r="P539" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25747,7 +25893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B608"/>
+  <dimension ref="A1:B611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31835,6 +31981,36 @@
       </c>
       <c r="B608" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>-0.93</v>
       </c>
     </row>
   </sheetData>
@@ -32008,28 +32184,28 @@
         <v>0.0427</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2524967979359787</v>
+        <v>0.2461612157990217</v>
       </c>
       <c r="J2" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="K2" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01904781825352087</v>
+        <v>0.01818307526265805</v>
       </c>
       <c r="M2" t="n">
-        <v>10.57917848699785</v>
+        <v>10.58339487546843</v>
       </c>
       <c r="N2" t="n">
-        <v>187.5813088060528</v>
+        <v>187.4923869650717</v>
       </c>
       <c r="O2" t="n">
-        <v>13.69603259364013</v>
+        <v>13.69278594607656</v>
       </c>
       <c r="P2" t="n">
-        <v>362.2401391941175</v>
+        <v>362.3012935390569</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32086,28 +32262,28 @@
         <v>0.0709</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1842772357486611</v>
+        <v>0.187358876101859</v>
       </c>
       <c r="J3" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="K3" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02004312174134582</v>
+        <v>0.02082967234094524</v>
       </c>
       <c r="M3" t="n">
-        <v>7.603279507433169</v>
+        <v>7.609841053220444</v>
       </c>
       <c r="N3" t="n">
-        <v>92.93302129004667</v>
+        <v>92.91460366326967</v>
       </c>
       <c r="O3" t="n">
-        <v>9.640177451170008</v>
+        <v>9.63922215032259</v>
       </c>
       <c r="P3" t="n">
-        <v>369.9588015998261</v>
+        <v>369.9285531396591</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32164,28 +32340,28 @@
         <v>0.0611</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1907575213701035</v>
+        <v>0.1885429168197416</v>
       </c>
       <c r="J4" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="K4" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02010786977185131</v>
+        <v>0.01985569259802911</v>
       </c>
       <c r="M4" t="n">
-        <v>7.821704414103388</v>
+        <v>7.79347730852359</v>
       </c>
       <c r="N4" t="n">
-        <v>99.61199963616775</v>
+        <v>99.14294648629671</v>
       </c>
       <c r="O4" t="n">
-        <v>9.980581127177302</v>
+        <v>9.95705511114088</v>
       </c>
       <c r="P4" t="n">
-        <v>365.8404165687625</v>
+        <v>365.8620518522287</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32242,28 +32418,28 @@
         <v>0.0772</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2467310498863627</v>
+        <v>0.2464851377570391</v>
       </c>
       <c r="J5" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="K5" t="n">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03242625659392118</v>
+        <v>0.03270087672321764</v>
       </c>
       <c r="M5" t="n">
-        <v>7.806892927403153</v>
+        <v>7.769675124527445</v>
       </c>
       <c r="N5" t="n">
-        <v>103.2068670935532</v>
+        <v>102.6832537570866</v>
       </c>
       <c r="O5" t="n">
-        <v>10.15907806316859</v>
+        <v>10.13327458214207</v>
       </c>
       <c r="P5" t="n">
-        <v>370.1984311278989</v>
+        <v>370.200830469183</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32320,28 +32496,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2223345565418456</v>
+        <v>0.2016962174723484</v>
       </c>
       <c r="J6" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="K6" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02875242321179794</v>
+        <v>0.02346310776823246</v>
       </c>
       <c r="M6" t="n">
-        <v>7.185427540703591</v>
+        <v>7.22811751482554</v>
       </c>
       <c r="N6" t="n">
-        <v>95.83110471873495</v>
+        <v>97.9491713439951</v>
       </c>
       <c r="O6" t="n">
-        <v>9.789336275699949</v>
+        <v>9.896927368834991</v>
       </c>
       <c r="P6" t="n">
-        <v>375.7811000134681</v>
+        <v>375.9811229949211</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32398,28 +32574,28 @@
         <v>0.1267</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3579953027522979</v>
+        <v>0.3440844317517333</v>
       </c>
       <c r="J7" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="K7" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08467579005224823</v>
+        <v>0.07889039256522912</v>
       </c>
       <c r="M7" t="n">
-        <v>6.684613463562122</v>
+        <v>6.705767322565345</v>
       </c>
       <c r="N7" t="n">
-        <v>79.1852098694653</v>
+        <v>79.67163454770494</v>
       </c>
       <c r="O7" t="n">
-        <v>8.898607187052662</v>
+        <v>8.925896848367952</v>
       </c>
       <c r="P7" t="n">
-        <v>368.3339180811382</v>
+        <v>368.4676542872886</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32476,28 +32652,28 @@
         <v>0.1452</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2975288022679907</v>
+        <v>0.2834180051564174</v>
       </c>
       <c r="J8" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="K8" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05462539906230357</v>
+        <v>0.04957428748397086</v>
       </c>
       <c r="M8" t="n">
-        <v>6.971267914516028</v>
+        <v>7.010793324285095</v>
       </c>
       <c r="N8" t="n">
-        <v>86.8231480363695</v>
+        <v>87.98847013396602</v>
       </c>
       <c r="O8" t="n">
-        <v>9.317893970011115</v>
+        <v>9.380216955591486</v>
       </c>
       <c r="P8" t="n">
-        <v>361.1606215746896</v>
+        <v>361.2976659863979</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32554,28 +32730,28 @@
         <v>0.1496</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3469939756684373</v>
+        <v>0.3371057181677636</v>
       </c>
       <c r="J9" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="K9" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09295886566925216</v>
+        <v>0.08858972017592226</v>
       </c>
       <c r="M9" t="n">
-        <v>6.178661352850158</v>
+        <v>6.184478298631496</v>
       </c>
       <c r="N9" t="n">
-        <v>66.51251178054102</v>
+        <v>66.71528719261785</v>
       </c>
       <c r="O9" t="n">
-        <v>8.155520325555017</v>
+        <v>8.167942653607323</v>
       </c>
       <c r="P9" t="n">
-        <v>360.5803287471166</v>
+        <v>360.6769195343059</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32632,28 +32808,28 @@
         <v>0.1384</v>
       </c>
       <c r="I10" t="n">
-        <v>0.345953854523912</v>
+        <v>0.3326567216293806</v>
       </c>
       <c r="J10" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="K10" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08300458192483762</v>
+        <v>0.07713052988003866</v>
       </c>
       <c r="M10" t="n">
-        <v>6.627535513627667</v>
+        <v>6.653700801157284</v>
       </c>
       <c r="N10" t="n">
-        <v>75.80950632979311</v>
+        <v>76.49937889956868</v>
       </c>
       <c r="O10" t="n">
-        <v>8.706865470982834</v>
+        <v>8.746392336247482</v>
       </c>
       <c r="P10" t="n">
-        <v>359.3441281405661</v>
+        <v>359.4734154916982</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32710,28 +32886,28 @@
         <v>0.0969</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2988941284599128</v>
+        <v>0.2843618124607284</v>
       </c>
       <c r="J11" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="K11" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05807195153931044</v>
+        <v>0.05263795364623536</v>
       </c>
       <c r="M11" t="n">
-        <v>7.083616793923437</v>
+        <v>7.115790696144757</v>
       </c>
       <c r="N11" t="n">
-        <v>83.32815335661313</v>
+        <v>84.31165761301574</v>
       </c>
       <c r="O11" t="n">
-        <v>9.128425568333958</v>
+        <v>9.182137965257096</v>
       </c>
       <c r="P11" t="n">
-        <v>358.1474896054262</v>
+        <v>358.2889781228115</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32788,28 +32964,28 @@
         <v>0.0839</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3918253378472447</v>
+        <v>0.3787998450648029</v>
       </c>
       <c r="J12" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="K12" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08432666397026278</v>
+        <v>0.07953217368365462</v>
       </c>
       <c r="M12" t="n">
-        <v>7.604002905359541</v>
+        <v>7.624225486396971</v>
       </c>
       <c r="N12" t="n">
-        <v>95.57113209458102</v>
+        <v>95.91144190869959</v>
       </c>
       <c r="O12" t="n">
-        <v>9.776048899968792</v>
+        <v>9.79343871725859</v>
       </c>
       <c r="P12" t="n">
-        <v>362.5006733827481</v>
+        <v>362.6275566188663</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32866,28 +33042,28 @@
         <v>0.0757</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3979094448802138</v>
+        <v>0.3963392938826958</v>
       </c>
       <c r="J13" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="K13" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08552885444097058</v>
+        <v>0.08549966456497282</v>
       </c>
       <c r="M13" t="n">
-        <v>7.545745394809622</v>
+        <v>7.540435164721531</v>
       </c>
       <c r="N13" t="n">
-        <v>96.88860850599973</v>
+        <v>96.63603453972402</v>
       </c>
       <c r="O13" t="n">
-        <v>9.843201131034544</v>
+        <v>9.830362889523663</v>
       </c>
       <c r="P13" t="n">
-        <v>360.2808023021666</v>
+        <v>360.2962158521618</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32944,28 +33120,28 @@
         <v>0.0757</v>
       </c>
       <c r="I14" t="n">
-        <v>0.246942738134887</v>
+        <v>0.2445884581848549</v>
       </c>
       <c r="J14" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="K14" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02982361017754998</v>
+        <v>0.02951691591940142</v>
       </c>
       <c r="M14" t="n">
-        <v>7.871583538369243</v>
+        <v>7.853856269087563</v>
       </c>
       <c r="N14" t="n">
-        <v>113.5625808734968</v>
+        <v>113.1313962667829</v>
       </c>
       <c r="O14" t="n">
-        <v>10.65657453750955</v>
+        <v>10.63632437765899</v>
       </c>
       <c r="P14" t="n">
-        <v>363.8529954113108</v>
+        <v>363.8762304752915</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33022,28 +33198,28 @@
         <v>0.0567</v>
       </c>
       <c r="I15" t="n">
-        <v>0.196013800674944</v>
+        <v>0.1968360573546259</v>
       </c>
       <c r="J15" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="K15" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L15" t="n">
-        <v>0.006851014126849964</v>
+        <v>0.006983289381826685</v>
       </c>
       <c r="M15" t="n">
-        <v>14.13798649366674</v>
+        <v>14.07398990590441</v>
       </c>
       <c r="N15" t="n">
-        <v>309.7944987722786</v>
+        <v>308.2533655540823</v>
       </c>
       <c r="O15" t="n">
-        <v>17.60098005147096</v>
+        <v>17.55714571204791</v>
       </c>
       <c r="P15" t="n">
-        <v>394.2312443780929</v>
+        <v>394.2231590070161</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33081,7 +33257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P536"/>
+  <dimension ref="A1:P539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69697,6 +69873,220 @@
         </is>
       </c>
     </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr"/>
+      <c r="C537" t="inlineStr"/>
+      <c r="D537" t="inlineStr"/>
+      <c r="E537" t="inlineStr"/>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>-34.83244366214934,173.4112408375705</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>-34.83301274940898,173.4118608288972</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>-34.83361192585041,173.41243195227872</t>
+        </is>
+      </c>
+      <c r="I537" t="inlineStr">
+        <is>
+          <t>-34.833978777967225,173.41323700341292</t>
+        </is>
+      </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>-34.834384577803796,173.41402088783968</t>
+        </is>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>-34.834651822373395,173.41488036766003</t>
+        </is>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>-34.83472976214741,173.41579434089823</t>
+        </is>
+      </c>
+      <c r="M537" t="inlineStr"/>
+      <c r="N537" t="inlineStr"/>
+      <c r="O537" t="inlineStr"/>
+      <c r="P537" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>-34.829535055846264,173.41099297716386</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>-34.83026104789607,173.41084385345292</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>-34.83097443098467,173.41089111778973</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>-34.83165972015363,173.41119006337172</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>-34.83231139606849,173.41153818190145</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>-34.83290978221785,173.41199843024864</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>-34.83340622170408,173.41263426950525</t>
+        </is>
+      </c>
+      <c r="I538" t="inlineStr">
+        <is>
+          <t>-34.83385533416705,173.41333039879586</t>
+        </is>
+      </c>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>-34.83420768745951,173.41410785162273</t>
+        </is>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>-34.83443412801834,173.4149527873711</t>
+        </is>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>-34.834608168350414,173.4158224347372</t>
+        </is>
+      </c>
+      <c r="M538" t="inlineStr">
+        <is>
+          <t>-34.834640089121336,173.416722559967</t>
+        </is>
+      </c>
+      <c r="N538" t="inlineStr">
+        <is>
+          <t>-34.83477305192231,173.41758839701586</t>
+        </is>
+      </c>
+      <c r="O538" t="inlineStr">
+        <is>
+          <t>-34.83436701858356,173.4183754329294</t>
+        </is>
+      </c>
+      <c r="P538" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr"/>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>-34.83028109414788,173.4110381005126</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>-34.83097263538978,173.41090528763687</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>-34.83166242890612,173.411179599514</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>-34.83235109259072,173.41144894133498</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>-34.83296065431014,173.41193044683087</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>-34.83348438511698,173.41255739321065</t>
+        </is>
+      </c>
+      <c r="I539" t="inlineStr">
+        <is>
+          <t>-34.83393034798625,173.41327364471448</t>
+        </is>
+      </c>
+      <c r="J539" t="inlineStr">
+        <is>
+          <t>-34.834266548773385,173.4140789139513</t>
+        </is>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>-34.83453241173621,173.4149200916777</t>
+        </is>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>-34.83458906412754,173.41582684869633</t>
+        </is>
+      </c>
+      <c r="M539" t="inlineStr">
+        <is>
+          <t>-34.83475466462782,173.4167028647125</t>
+        </is>
+      </c>
+      <c r="N539" t="inlineStr">
+        <is>
+          <t>-34.83484719089676,173.41759309258842</t>
+        </is>
+      </c>
+      <c r="O539" t="inlineStr">
+        <is>
+          <t>-34.834339692443635,173.41836731145034</t>
+        </is>
+      </c>
+      <c r="P539" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0026/nzd0026.xlsx
+++ b/data/nzd0026/nzd0026.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P539"/>
+  <dimension ref="A1:P542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25882,6 +25882,142 @@
         </is>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>364.35</v>
+      </c>
+      <c r="C540" t="n">
+        <v>369.9776923076923</v>
+      </c>
+      <c r="D540" t="n">
+        <v>367.9218181818182</v>
+      </c>
+      <c r="E540" t="n">
+        <v>379.8214285714286</v>
+      </c>
+      <c r="F540" t="n">
+        <v>379.6623529411765</v>
+      </c>
+      <c r="G540" t="n">
+        <v>375.0409090909091</v>
+      </c>
+      <c r="H540" t="n">
+        <v>369.11</v>
+      </c>
+      <c r="I540" t="n">
+        <v>365.7238461538461</v>
+      </c>
+      <c r="J540" t="n">
+        <v>367.8233333333333</v>
+      </c>
+      <c r="K540" t="n">
+        <v>368.7823529411765</v>
+      </c>
+      <c r="L540" t="n">
+        <v>370.1633333333334</v>
+      </c>
+      <c r="M540" t="n">
+        <v>376.4014285714285</v>
+      </c>
+      <c r="N540" t="n">
+        <v>371.9914285714286</v>
+      </c>
+      <c r="O540" t="n">
+        <v>401.38</v>
+      </c>
+      <c r="P540" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr"/>
+      <c r="C541" t="inlineStr"/>
+      <c r="D541" t="inlineStr"/>
+      <c r="E541" t="inlineStr"/>
+      <c r="F541" t="inlineStr"/>
+      <c r="G541" t="inlineStr"/>
+      <c r="H541" t="inlineStr"/>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="n">
+        <v>403.27</v>
+      </c>
+      <c r="M541" t="inlineStr"/>
+      <c r="N541" t="inlineStr"/>
+      <c r="O541" t="inlineStr"/>
+      <c r="P541" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>357.92</v>
+      </c>
+      <c r="C542" t="n">
+        <v>364</v>
+      </c>
+      <c r="D542" t="n">
+        <v>356.879090909091</v>
+      </c>
+      <c r="E542" t="n">
+        <v>366.6585714285715</v>
+      </c>
+      <c r="F542" t="n">
+        <v>372.6617647058824</v>
+      </c>
+      <c r="G542" t="n">
+        <v>370.3745454545455</v>
+      </c>
+      <c r="H542" t="n">
+        <v>365.9</v>
+      </c>
+      <c r="I542" t="n">
+        <v>364.18</v>
+      </c>
+      <c r="J542" t="n">
+        <v>364.42</v>
+      </c>
+      <c r="K542" t="n">
+        <v>359.1417647058824</v>
+      </c>
+      <c r="L542" t="n">
+        <v>367.08</v>
+      </c>
+      <c r="M542" t="n">
+        <v>364.0685714285714</v>
+      </c>
+      <c r="N542" t="n">
+        <v>364.4185714285715</v>
+      </c>
+      <c r="O542" t="n">
+        <v>410.56</v>
+      </c>
+      <c r="P542" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25893,7 +26029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B611"/>
+  <dimension ref="A1:B614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32011,6 +32147,36 @@
       </c>
       <c r="B611" t="n">
         <v>-0.93</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -32184,28 +32350,28 @@
         <v>0.0427</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2461612157990217</v>
+        <v>0.2385374461490061</v>
       </c>
       <c r="J2" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K2" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01818307526265805</v>
+        <v>0.01725180280327387</v>
       </c>
       <c r="M2" t="n">
-        <v>10.58339487546843</v>
+        <v>10.56600852018214</v>
       </c>
       <c r="N2" t="n">
-        <v>187.4923869650717</v>
+        <v>186.8575937361453</v>
       </c>
       <c r="O2" t="n">
-        <v>13.69278594607656</v>
+        <v>13.66958645080916</v>
       </c>
       <c r="P2" t="n">
-        <v>362.3012935390569</v>
+        <v>362.3752049503046</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32262,28 +32428,28 @@
         <v>0.0709</v>
       </c>
       <c r="I3" t="n">
-        <v>0.187358876101859</v>
+        <v>0.1796198522117077</v>
       </c>
       <c r="J3" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K3" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02082967234094524</v>
+        <v>0.01931216191681029</v>
       </c>
       <c r="M3" t="n">
-        <v>7.609841053220444</v>
+        <v>7.61107806004297</v>
       </c>
       <c r="N3" t="n">
-        <v>92.91460366326967</v>
+        <v>92.79176435409509</v>
       </c>
       <c r="O3" t="n">
-        <v>9.63922215032259</v>
+        <v>9.632848195320795</v>
       </c>
       <c r="P3" t="n">
-        <v>369.9285531396591</v>
+        <v>370.0046845254313</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32340,28 +32506,28 @@
         <v>0.0611</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1885429168197416</v>
+        <v>0.1805036963727432</v>
       </c>
       <c r="J4" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K4" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01985569259802911</v>
+        <v>0.01833069475005022</v>
       </c>
       <c r="M4" t="n">
-        <v>7.79347730852359</v>
+        <v>7.793815168420341</v>
       </c>
       <c r="N4" t="n">
-        <v>99.14294648629671</v>
+        <v>99.14373849496219</v>
       </c>
       <c r="O4" t="n">
-        <v>9.95705511114088</v>
+        <v>9.957094882291832</v>
       </c>
       <c r="P4" t="n">
-        <v>365.8620518522287</v>
+        <v>365.9409297255182</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32418,28 +32584,28 @@
         <v>0.0772</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2464851377570391</v>
+        <v>0.2432301186057453</v>
       </c>
       <c r="J5" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K5" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03270087672321764</v>
+        <v>0.03211594374652049</v>
       </c>
       <c r="M5" t="n">
-        <v>7.769675124527445</v>
+        <v>7.76300451925922</v>
       </c>
       <c r="N5" t="n">
-        <v>102.6832537570866</v>
+        <v>102.4394717260124</v>
       </c>
       <c r="O5" t="n">
-        <v>10.13327458214207</v>
+        <v>10.12123864583839</v>
       </c>
       <c r="P5" t="n">
-        <v>370.200830469183</v>
+        <v>370.2327575490127</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32496,28 +32662,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2016962174723484</v>
+        <v>0.1969998777055018</v>
       </c>
       <c r="J6" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K6" t="n">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02346310776823246</v>
+        <v>0.02258980326438009</v>
       </c>
       <c r="M6" t="n">
-        <v>7.22811751482554</v>
+        <v>7.214359048476766</v>
       </c>
       <c r="N6" t="n">
-        <v>97.9491713439951</v>
+        <v>97.64978476911365</v>
       </c>
       <c r="O6" t="n">
-        <v>9.896927368834991</v>
+        <v>9.881790564928689</v>
       </c>
       <c r="P6" t="n">
-        <v>375.9811229949211</v>
+        <v>376.0268866320724</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32574,28 +32740,28 @@
         <v>0.1267</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3440844317517333</v>
+        <v>0.3397733692821658</v>
       </c>
       <c r="J7" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K7" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07889039256522912</v>
+        <v>0.07769292970554864</v>
       </c>
       <c r="M7" t="n">
-        <v>6.705767322565345</v>
+        <v>6.695342639377974</v>
       </c>
       <c r="N7" t="n">
-        <v>79.67163454770494</v>
+        <v>79.41994542842988</v>
       </c>
       <c r="O7" t="n">
-        <v>8.925896848367952</v>
+        <v>8.911786881901401</v>
       </c>
       <c r="P7" t="n">
-        <v>368.4676542872886</v>
+        <v>368.5092972154637</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32652,28 +32818,28 @@
         <v>0.1452</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2834180051564174</v>
+        <v>0.2823586647804344</v>
       </c>
       <c r="J8" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K8" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04957428748397086</v>
+        <v>0.04969012724230892</v>
       </c>
       <c r="M8" t="n">
-        <v>7.010793324285095</v>
+        <v>6.984960865639986</v>
       </c>
       <c r="N8" t="n">
-        <v>87.98847013396602</v>
+        <v>87.58522156130775</v>
       </c>
       <c r="O8" t="n">
-        <v>9.380216955591486</v>
+        <v>9.358697642370318</v>
       </c>
       <c r="P8" t="n">
-        <v>361.2976659863979</v>
+        <v>361.3080213164042</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32730,28 +32896,28 @@
         <v>0.1496</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3371057181677636</v>
+        <v>0.3330279404714247</v>
       </c>
       <c r="J9" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K9" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08858972017592226</v>
+        <v>0.08732208614805081</v>
       </c>
       <c r="M9" t="n">
-        <v>6.184478298631496</v>
+        <v>6.172753336656722</v>
       </c>
       <c r="N9" t="n">
-        <v>66.71528719261785</v>
+        <v>66.492979600715</v>
       </c>
       <c r="O9" t="n">
-        <v>8.167942653607323</v>
+        <v>8.154322755490796</v>
       </c>
       <c r="P9" t="n">
-        <v>360.6769195343059</v>
+        <v>360.7169226346143</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32808,28 +32974,28 @@
         <v>0.1384</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3326567216293806</v>
+        <v>0.3308582641964435</v>
       </c>
       <c r="J10" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K10" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07713052988003866</v>
+        <v>0.07703106652034319</v>
       </c>
       <c r="M10" t="n">
-        <v>6.653700801157284</v>
+        <v>6.631596929181501</v>
       </c>
       <c r="N10" t="n">
-        <v>76.49937889956868</v>
+        <v>76.1628082195794</v>
       </c>
       <c r="O10" t="n">
-        <v>8.746392336247482</v>
+        <v>8.727130583392196</v>
       </c>
       <c r="P10" t="n">
-        <v>359.4734154916982</v>
+        <v>359.4910020353517</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32886,28 +33052,28 @@
         <v>0.0969</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2843618124607284</v>
+        <v>0.2828288770438995</v>
       </c>
       <c r="J11" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K11" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05263795364623536</v>
+        <v>0.05250727645569464</v>
       </c>
       <c r="M11" t="n">
-        <v>7.115790696144757</v>
+        <v>7.104870327907918</v>
       </c>
       <c r="N11" t="n">
-        <v>84.31165761301574</v>
+        <v>84.03297492016961</v>
       </c>
       <c r="O11" t="n">
-        <v>9.182137965257096</v>
+        <v>9.166950142777564</v>
       </c>
       <c r="P11" t="n">
-        <v>358.2889781228115</v>
+        <v>358.3040374063341</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32964,28 +33130,28 @@
         <v>0.0839</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3787998450648029</v>
+        <v>0.3889223177853</v>
       </c>
       <c r="J12" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K12" t="n">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07953217368365462</v>
+        <v>0.08274829154869257</v>
       </c>
       <c r="M12" t="n">
-        <v>7.624225486396971</v>
+        <v>7.657696260921528</v>
       </c>
       <c r="N12" t="n">
-        <v>95.91144190869959</v>
+        <v>97.5425772836805</v>
       </c>
       <c r="O12" t="n">
-        <v>9.79343871725859</v>
+        <v>9.876364578309191</v>
       </c>
       <c r="P12" t="n">
-        <v>362.6275566188663</v>
+        <v>362.5284499234319</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33042,28 +33208,28 @@
         <v>0.0757</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3963392938826958</v>
+        <v>0.3960101276973151</v>
       </c>
       <c r="J13" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K13" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08549966456497282</v>
+        <v>0.08597797310524069</v>
       </c>
       <c r="M13" t="n">
-        <v>7.540435164721531</v>
+        <v>7.533952282843946</v>
       </c>
       <c r="N13" t="n">
-        <v>96.63603453972402</v>
+        <v>96.35761516056728</v>
       </c>
       <c r="O13" t="n">
-        <v>9.830362889523663</v>
+        <v>9.816191479416407</v>
       </c>
       <c r="P13" t="n">
-        <v>360.2962158521618</v>
+        <v>360.2995412888449</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33120,28 +33286,28 @@
         <v>0.0757</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2445884581848549</v>
+        <v>0.2427978244588433</v>
       </c>
       <c r="J14" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K14" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02951691591940142</v>
+        <v>0.0293449100072174</v>
       </c>
       <c r="M14" t="n">
-        <v>7.853856269087563</v>
+        <v>7.834779335288214</v>
       </c>
       <c r="N14" t="n">
-        <v>113.1313962667829</v>
+        <v>112.6782609063744</v>
       </c>
       <c r="O14" t="n">
-        <v>10.63632437765899</v>
+        <v>10.61500169130342</v>
       </c>
       <c r="P14" t="n">
-        <v>363.8762304752915</v>
+        <v>363.8940029172109</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33198,28 +33364,28 @@
         <v>0.0567</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1968360573546259</v>
+        <v>0.2033274486452115</v>
       </c>
       <c r="J15" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K15" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L15" t="n">
-        <v>0.006983289381826685</v>
+        <v>0.007520708630124329</v>
       </c>
       <c r="M15" t="n">
-        <v>14.07398990590441</v>
+        <v>14.03018723062836</v>
       </c>
       <c r="N15" t="n">
-        <v>308.2533655540823</v>
+        <v>307.0338777691318</v>
       </c>
       <c r="O15" t="n">
-        <v>17.55714571204791</v>
+        <v>17.5223821944715</v>
       </c>
       <c r="P15" t="n">
-        <v>394.2231590070161</v>
+        <v>394.1591244296924</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33257,7 +33423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P539"/>
+  <dimension ref="A1:P542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70087,6 +70253,200 @@
         </is>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>-34.829557509705054,173.4110764636727</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>-34.830262309033365,173.41085607371133</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>-34.83097431891568,173.41089200217687</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>-34.83165165948739,173.41122120154247</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>-34.83231365767899,173.41153309764866</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>-34.832915776245855,173.41199042007773</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>-34.833427723651354,173.41261312165014</t>
+        </is>
+      </c>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>-34.833895860230214,173.41329973753415</t>
+        </is>
+      </c>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>-34.83420869030259,173.41410735860075</t>
+        </is>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>-34.83442011160224,173.4149574501557</t>
+        </is>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>-34.83457751891703,173.41582951617298</t>
+        </is>
+      </c>
+      <c r="M540" t="inlineStr">
+        <is>
+          <t>-34.83462987260314,173.41672431615936</t>
+        </is>
+      </c>
+      <c r="N540" t="inlineStr">
+        <is>
+          <t>-34.83477058190961,173.4175882405784</t>
+        </is>
+      </c>
+      <c r="O540" t="inlineStr">
+        <is>
+          <t>-34.83434249512469,173.4183681444223</t>
+        </is>
+      </c>
+      <c r="P540" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr"/>
+      <c r="C541" t="inlineStr"/>
+      <c r="D541" t="inlineStr"/>
+      <c r="E541" t="inlineStr"/>
+      <c r="F541" t="inlineStr"/>
+      <c r="G541" t="inlineStr"/>
+      <c r="H541" t="inlineStr"/>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>-34.8342842528282,173.41589727392858</t>
+        </is>
+      </c>
+      <c r="M541" t="inlineStr"/>
+      <c r="N541" t="inlineStr"/>
+      <c r="O541" t="inlineStr"/>
+      <c r="P541" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>-34.82953952984516,173.4110096120811</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>-34.830255614826754,173.41079120784934</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>-34.83098944443436,173.410772639369</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>-34.831687212792254,173.4110838596554</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>-34.83234363029424,173.41146571711863</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>-34.8329440550492,173.41195262943026</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>-34.83345020613954,173.41259100938598</t>
+        </is>
+      </c>
+      <c r="I542" t="inlineStr">
+        <is>
+          <t>-34.83390767199303,173.41329080096847</t>
+        </is>
+      </c>
+      <c r="J542" t="inlineStr">
+        <is>
+          <t>-34.83423713204572,173.4140933759446</t>
+        </is>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>-34.834503949206315,173.41492956021406</t>
+        </is>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>-34.83460483175508,173.4158232056452</t>
+        </is>
+      </c>
+      <c r="M542" t="inlineStr">
+        <is>
+          <t>-34.834739983963736,173.4167053882864</t>
+        </is>
+      </c>
+      <c r="N542" t="inlineStr">
+        <is>
+          <t>-34.83483877741613,173.41759255972235</t>
+        </is>
+      </c>
+      <c r="O542" t="inlineStr">
+        <is>
+          <t>-34.83426209320913,173.41834424856188</t>
+        </is>
+      </c>
+      <c r="P542" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0026/nzd0026.xlsx
+++ b/data/nzd0026/nzd0026.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P542"/>
+  <dimension ref="A1:P545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26018,6 +26018,166 @@
         </is>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>363.09</v>
+      </c>
+      <c r="C543" t="n">
+        <v>362.9507692307693</v>
+      </c>
+      <c r="D543" t="n">
+        <v>361.2845454545454</v>
+      </c>
+      <c r="E543" t="n">
+        <v>373.2828571428572</v>
+      </c>
+      <c r="F543" t="n">
+        <v>373.5311764705882</v>
+      </c>
+      <c r="G543" t="n">
+        <v>368.4672727272728</v>
+      </c>
+      <c r="H543" t="n">
+        <v>368.85</v>
+      </c>
+      <c r="I543" t="n">
+        <v>365.7653846153846</v>
+      </c>
+      <c r="J543" t="n">
+        <v>364.3766666666667</v>
+      </c>
+      <c r="K543" t="n">
+        <v>362.5511764705882</v>
+      </c>
+      <c r="L543" t="n">
+        <v>358.7966666666667</v>
+      </c>
+      <c r="M543" t="n">
+        <v>371.4228571428571</v>
+      </c>
+      <c r="N543" t="n">
+        <v>364.0328571428572</v>
+      </c>
+      <c r="O543" t="n">
+        <v>405.25</v>
+      </c>
+      <c r="P543" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>369.96</v>
+      </c>
+      <c r="C544" t="n">
+        <v>364.0615384615385</v>
+      </c>
+      <c r="D544" t="n">
+        <v>359.2181818181818</v>
+      </c>
+      <c r="E544" t="n">
+        <v>369.9642857142857</v>
+      </c>
+      <c r="F544" t="n">
+        <v>375.0441176470589</v>
+      </c>
+      <c r="G544" t="n">
+        <v>372.4290909090909</v>
+      </c>
+      <c r="H544" t="n">
+        <v>368.02</v>
+      </c>
+      <c r="I544" t="n">
+        <v>361.6407692307693</v>
+      </c>
+      <c r="J544" t="n">
+        <v>365.2333333333333</v>
+      </c>
+      <c r="K544" t="n">
+        <v>356.0641176470588</v>
+      </c>
+      <c r="L544" t="n">
+        <v>363.7733333333333</v>
+      </c>
+      <c r="M544" t="n">
+        <v>371.9242857142857</v>
+      </c>
+      <c r="N544" t="n">
+        <v>362.5842857142857</v>
+      </c>
+      <c r="O544" t="n">
+        <v>405.68</v>
+      </c>
+      <c r="P544" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr"/>
+      <c r="C545" t="n">
+        <v>369.8115384615385</v>
+      </c>
+      <c r="D545" t="n">
+        <v>349.9172727272727</v>
+      </c>
+      <c r="E545" t="n">
+        <v>362.5228571428572</v>
+      </c>
+      <c r="F545" t="n">
+        <v>366.7758823529412</v>
+      </c>
+      <c r="G545" t="n">
+        <v>367.2636363636364</v>
+      </c>
+      <c r="H545" t="n">
+        <v>359.83</v>
+      </c>
+      <c r="I545" t="n">
+        <v>357.4707692307692</v>
+      </c>
+      <c r="J545" t="n">
+        <v>357.0933333333333</v>
+      </c>
+      <c r="K545" t="n">
+        <v>348.8058823529412</v>
+      </c>
+      <c r="L545" t="n">
+        <v>345.4433333333333</v>
+      </c>
+      <c r="M545" t="n">
+        <v>352.8828571428572</v>
+      </c>
+      <c r="N545" t="n">
+        <v>358.0128571428572</v>
+      </c>
+      <c r="O545" t="n">
+        <v>395.18</v>
+      </c>
+      <c r="P545" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26029,7 +26189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B614"/>
+  <dimension ref="A1:B618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32177,6 +32337,46 @@
       </c>
       <c r="B614" t="n">
         <v>-0.39</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>-0.62</v>
       </c>
     </row>
   </sheetData>
@@ -32350,28 +32550,28 @@
         <v>0.0427</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2385374461490061</v>
+        <v>0.2364889936543181</v>
       </c>
       <c r="J2" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K2" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01725180280327387</v>
+        <v>0.01714097562269878</v>
       </c>
       <c r="M2" t="n">
-        <v>10.56600852018214</v>
+        <v>10.52836568024322</v>
       </c>
       <c r="N2" t="n">
-        <v>186.8575937361453</v>
+        <v>185.9651703436614</v>
       </c>
       <c r="O2" t="n">
-        <v>13.66958645080916</v>
+        <v>13.63690472004778</v>
       </c>
       <c r="P2" t="n">
-        <v>362.3752049503046</v>
+        <v>362.3951025669887</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32428,28 +32628,28 @@
         <v>0.0709</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1796198522117077</v>
+        <v>0.1663806913285427</v>
       </c>
       <c r="J3" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K3" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01931216191681029</v>
+        <v>0.01676157009727097</v>
       </c>
       <c r="M3" t="n">
-        <v>7.61107806004297</v>
+        <v>7.621968638344334</v>
       </c>
       <c r="N3" t="n">
-        <v>92.79176435409509</v>
+        <v>92.76590296416244</v>
       </c>
       <c r="O3" t="n">
-        <v>9.632848195320795</v>
+        <v>9.631505747501915</v>
       </c>
       <c r="P3" t="n">
-        <v>370.0046845254313</v>
+        <v>370.1352406815606</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32506,28 +32706,28 @@
         <v>0.0611</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1805036963727432</v>
+        <v>0.1608987144782359</v>
       </c>
       <c r="J4" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K4" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01833069475005022</v>
+        <v>0.01462068854220222</v>
       </c>
       <c r="M4" t="n">
-        <v>7.793815168420341</v>
+        <v>7.832376355666796</v>
       </c>
       <c r="N4" t="n">
-        <v>99.14373849496219</v>
+        <v>99.97361406153816</v>
       </c>
       <c r="O4" t="n">
-        <v>9.957094882291832</v>
+        <v>9.998680616038206</v>
       </c>
       <c r="P4" t="n">
-        <v>365.9409297255182</v>
+        <v>366.1338091450628</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32584,28 +32784,28 @@
         <v>0.0772</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2432301186057453</v>
+        <v>0.2318903805964685</v>
       </c>
       <c r="J5" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K5" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03211594374652049</v>
+        <v>0.029552392217569</v>
       </c>
       <c r="M5" t="n">
-        <v>7.76300451925922</v>
+        <v>7.760897650840914</v>
       </c>
       <c r="N5" t="n">
-        <v>102.4394717260124</v>
+        <v>102.2885699795855</v>
       </c>
       <c r="O5" t="n">
-        <v>10.12123864583839</v>
+        <v>10.11378119100791</v>
       </c>
       <c r="P5" t="n">
-        <v>370.2327575490127</v>
+        <v>370.344084777654</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32662,28 +32862,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1969998777055018</v>
+        <v>0.1841659237649262</v>
       </c>
       <c r="J6" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K6" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02258980326438009</v>
+        <v>0.01994725267855624</v>
       </c>
       <c r="M6" t="n">
-        <v>7.214359048476766</v>
+        <v>7.221163541145191</v>
       </c>
       <c r="N6" t="n">
-        <v>97.64978476911365</v>
+        <v>97.6584528534592</v>
       </c>
       <c r="O6" t="n">
-        <v>9.881790564928689</v>
+        <v>9.882229143946176</v>
       </c>
       <c r="P6" t="n">
-        <v>376.0268866320724</v>
+        <v>376.1523001947194</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32740,28 +32940,28 @@
         <v>0.1267</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3397733692821658</v>
+        <v>0.328980855482263</v>
       </c>
       <c r="J7" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K7" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07769292970554864</v>
+        <v>0.0738154563220248</v>
       </c>
       <c r="M7" t="n">
-        <v>6.695342639377974</v>
+        <v>6.701732598418541</v>
       </c>
       <c r="N7" t="n">
-        <v>79.41994542842988</v>
+        <v>79.33108061785228</v>
       </c>
       <c r="O7" t="n">
-        <v>8.911786881901401</v>
+        <v>8.906799684390139</v>
       </c>
       <c r="P7" t="n">
-        <v>368.5092972154637</v>
+        <v>368.6138443543747</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32818,28 +33018,28 @@
         <v>0.1452</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2823586647804344</v>
+        <v>0.2781633799236778</v>
       </c>
       <c r="J8" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K8" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04969012724230892</v>
+        <v>0.0488931435840092</v>
       </c>
       <c r="M8" t="n">
-        <v>6.984960865639986</v>
+        <v>6.958119148583111</v>
       </c>
       <c r="N8" t="n">
-        <v>87.58522156130775</v>
+        <v>87.1451138347264</v>
       </c>
       <c r="O8" t="n">
-        <v>9.358697642370318</v>
+        <v>9.335154730090252</v>
       </c>
       <c r="P8" t="n">
-        <v>361.3080213164042</v>
+        <v>361.3491375972968</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32896,28 +33096,28 @@
         <v>0.1496</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3330279404714247</v>
+        <v>0.3225851973567011</v>
       </c>
       <c r="J9" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K9" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08732208614805081</v>
+        <v>0.08292538467982691</v>
       </c>
       <c r="M9" t="n">
-        <v>6.172753336656722</v>
+        <v>6.175088479397848</v>
       </c>
       <c r="N9" t="n">
-        <v>66.492979600715</v>
+        <v>66.52114762455615</v>
       </c>
       <c r="O9" t="n">
-        <v>8.154322755490796</v>
+        <v>8.15604975613539</v>
       </c>
       <c r="P9" t="n">
-        <v>360.7169226346143</v>
+        <v>360.8197370050933</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32974,28 +33174,28 @@
         <v>0.1384</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3308582641964435</v>
+        <v>0.3230266602446727</v>
       </c>
       <c r="J10" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K10" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07703106652034319</v>
+        <v>0.07439088526604887</v>
       </c>
       <c r="M10" t="n">
-        <v>6.631596929181501</v>
+        <v>6.627333615808057</v>
       </c>
       <c r="N10" t="n">
-        <v>76.1628082195794</v>
+        <v>75.95373321474879</v>
       </c>
       <c r="O10" t="n">
-        <v>8.727130583392196</v>
+        <v>8.715143900977699</v>
       </c>
       <c r="P10" t="n">
-        <v>359.4910020353517</v>
+        <v>359.567800427264</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33052,28 +33252,28 @@
         <v>0.0969</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2828288770438995</v>
+        <v>0.269863725485326</v>
       </c>
       <c r="J11" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K11" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05250727645569464</v>
+        <v>0.04819340497575608</v>
       </c>
       <c r="M11" t="n">
-        <v>7.104870327907918</v>
+        <v>7.124933797157891</v>
       </c>
       <c r="N11" t="n">
-        <v>84.03297492016961</v>
+        <v>84.33797202174152</v>
       </c>
       <c r="O11" t="n">
-        <v>9.166950142777564</v>
+        <v>9.183570766414419</v>
       </c>
       <c r="P11" t="n">
-        <v>358.3040374063341</v>
+        <v>358.4313385618718</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33130,28 +33330,28 @@
         <v>0.0839</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3889223177853</v>
+        <v>0.367380831257085</v>
       </c>
       <c r="J12" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K12" t="n">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08274829154869257</v>
+        <v>0.07383901990217467</v>
       </c>
       <c r="M12" t="n">
-        <v>7.657696260921528</v>
+        <v>7.726912385799708</v>
       </c>
       <c r="N12" t="n">
-        <v>97.5425772836805</v>
+        <v>99.18560552112207</v>
       </c>
       <c r="O12" t="n">
-        <v>9.876364578309191</v>
+        <v>9.959197031946003</v>
       </c>
       <c r="P12" t="n">
-        <v>362.5284499234319</v>
+        <v>362.7400728861213</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33208,28 +33408,28 @@
         <v>0.0757</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3960101276973151</v>
+        <v>0.389155852626573</v>
       </c>
       <c r="J13" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K13" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08597797310524069</v>
+        <v>0.08377526909970445</v>
       </c>
       <c r="M13" t="n">
-        <v>7.533952282843946</v>
+        <v>7.528319166833877</v>
       </c>
       <c r="N13" t="n">
-        <v>96.35761516056728</v>
+        <v>96.41985202184023</v>
       </c>
       <c r="O13" t="n">
-        <v>9.816191479416407</v>
+        <v>9.819361080123301</v>
       </c>
       <c r="P13" t="n">
-        <v>360.2995412888449</v>
+        <v>360.3672791625637</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33286,28 +33486,28 @@
         <v>0.0757</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2427978244588433</v>
+        <v>0.231500674831401</v>
       </c>
       <c r="J14" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K14" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0293449100072174</v>
+        <v>0.02698278588467773</v>
       </c>
       <c r="M14" t="n">
-        <v>7.834779335288214</v>
+        <v>7.842265042557591</v>
       </c>
       <c r="N14" t="n">
-        <v>112.6782609063744</v>
+        <v>112.4470298305564</v>
       </c>
       <c r="O14" t="n">
-        <v>10.61500169130342</v>
+        <v>10.60410438606469</v>
       </c>
       <c r="P14" t="n">
-        <v>363.8940029172109</v>
+        <v>364.0062200369591</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33364,28 +33564,28 @@
         <v>0.0567</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2033274486452115</v>
+        <v>0.2070335311358926</v>
       </c>
       <c r="J15" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K15" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L15" t="n">
-        <v>0.007520708630124329</v>
+        <v>0.007914526999345917</v>
       </c>
       <c r="M15" t="n">
-        <v>14.03018723062836</v>
+        <v>13.96232052182317</v>
       </c>
       <c r="N15" t="n">
-        <v>307.0338777691318</v>
+        <v>304.972355071581</v>
       </c>
       <c r="O15" t="n">
-        <v>17.5223821944715</v>
+        <v>17.46345770663934</v>
       </c>
       <c r="P15" t="n">
-        <v>394.1591244296924</v>
+        <v>394.1225525193063</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33423,7 +33623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P542"/>
+  <dimension ref="A1:P545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70447,6 +70647,248 @@
         </is>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>-34.82955398643837,173.41106336366963</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>-34.83025443982666,173.41077982230982</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>-34.83098341017954,173.41082025871802</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>-34.83166932040059,173.4111529777874</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>-34.83233990795987,173.41147408519316</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>-34.83295561338001,173.41193718333312</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>-34.83342954466302,173.41261133062608</t>
+        </is>
+      </c>
+      <c r="I543" t="inlineStr">
+        <is>
+          <t>-34.83389554242493,173.4132999779798</t>
+        </is>
+      </c>
+      <c r="J543" t="inlineStr">
+        <is>
+          <t>-34.83423749418347,173.41409319790876</t>
+        </is>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>-34.834474299884214,173.4149394235496</t>
+        </is>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>-34.834678207323385,173.41580625247752</t>
+        </is>
+      </c>
+      <c r="M543" t="inlineStr">
+        <is>
+          <t>-34.834674322747524,173.4167166752945</t>
+        </is>
+      </c>
+      <c r="N543" t="inlineStr">
+        <is>
+          <t>-34.83484225087142,173.41759277971292</t>
+        </is>
+      </c>
+      <c r="O543" t="inlineStr">
+        <is>
+          <t>-34.83430860020024,173.41835807067145</t>
+        </is>
+      </c>
+      <c r="P543" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>-34.82957319661326,173.41113478989044</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>-34.83025568374167,173.41079187562295</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>-34.83098624052879,173.4107979230234</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>-34.83167828396508,173.41111835164915</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>-34.832333430391536,173.41148864722638</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>-34.832931604223525,173.41196926821453</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>-34.83343535789234,173.41260561312566</t>
+        </is>
+      </c>
+      <c r="I544" t="inlineStr">
+        <is>
+          <t>-34.833927099310486,173.41327610260558</t>
+        </is>
+      </c>
+      <c r="J544" t="inlineStr">
+        <is>
+          <t>-34.834230334998544,173.41409671754008</t>
+        </is>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>-34.834530713396916,173.41492065665884</t>
+        </is>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>-34.83463412292798,173.41581643802607</t>
+        </is>
+      </c>
+      <c r="M544" t="inlineStr">
+        <is>
+          <t>-34.83466984584635,173.4167174448626</t>
+        </is>
+      </c>
+      <c r="N544" t="inlineStr">
+        <is>
+          <t>-34.8348552956258,173.41759360589987</t>
+        </is>
+      </c>
+      <c r="O544" t="inlineStr">
+        <is>
+          <t>-34.83430483409746,173.41835695136632</t>
+        </is>
+      </c>
+      <c r="P544" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr"/>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>-34.830262122963994,173.41085427072235</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>-34.83099898016274,173.410697387812</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>-34.83169838345904,173.41104070738817</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>-34.832368830331745,173.41140906557376</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>-34.832962907578256,173.4119274356509</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>-34.83349271974325,173.41254919581942</t>
+        </is>
+      </c>
+      <c r="I545" t="inlineStr">
+        <is>
+          <t>-34.83395900342292,173.41325196450364</t>
+        </is>
+      </c>
+      <c r="J545" t="inlineStr">
+        <is>
+          <t>-34.8342983611795,173.41406327417056</t>
+        </is>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>-34.83459383329998,173.4148996587449</t>
+        </is>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>-34.834796494048014,173.41577892268123</t>
+        </is>
+      </c>
+      <c r="M545" t="inlineStr">
+        <is>
+          <t>-34.834839853292976,173.4166882209506</t>
+        </is>
+      </c>
+      <c r="N545" t="inlineStr">
+        <is>
+          <t>-34.834896462503295,173.4175962131978</t>
+        </is>
+      </c>
+      <c r="O545" t="inlineStr">
+        <is>
+          <t>-34.83439679706856,173.4183842832654</t>
+        </is>
+      </c>
+      <c r="P545" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0026/nzd0026.xlsx
+++ b/data/nzd0026/nzd0026.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P545"/>
+  <dimension ref="A1:P548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26178,6 +26178,142 @@
         </is>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:27+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr"/>
+      <c r="C546" t="inlineStr"/>
+      <c r="D546" t="inlineStr"/>
+      <c r="E546" t="inlineStr"/>
+      <c r="F546" t="inlineStr"/>
+      <c r="G546" t="inlineStr"/>
+      <c r="H546" t="n">
+        <v>396.24</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="inlineStr"/>
+      <c r="M546" t="inlineStr"/>
+      <c r="N546" t="inlineStr"/>
+      <c r="O546" t="inlineStr"/>
+      <c r="P546" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>387.82</v>
+      </c>
+      <c r="C547" t="n">
+        <v>383.3238461538461</v>
+      </c>
+      <c r="D547" t="n">
+        <v>367.9736363636364</v>
+      </c>
+      <c r="E547" t="n">
+        <v>367.5671428571428</v>
+      </c>
+      <c r="F547" t="n">
+        <v>377.4205882352941</v>
+      </c>
+      <c r="G547" t="n">
+        <v>374.3318181818182</v>
+      </c>
+      <c r="H547" t="n">
+        <v>364.24</v>
+      </c>
+      <c r="I547" t="n">
+        <v>367.0969230769231</v>
+      </c>
+      <c r="J547" t="n">
+        <v>360.6866666666667</v>
+      </c>
+      <c r="K547" t="n">
+        <v>355.3905882352942</v>
+      </c>
+      <c r="L547" t="n">
+        <v>362.1066666666666</v>
+      </c>
+      <c r="M547" t="n">
+        <v>362.9971428571428</v>
+      </c>
+      <c r="N547" t="n">
+        <v>371.9571428571429</v>
+      </c>
+      <c r="O547" t="n">
+        <v>410.86</v>
+      </c>
+      <c r="P547" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>358.97</v>
+      </c>
+      <c r="C548" t="n">
+        <v>371.48</v>
+      </c>
+      <c r="D548" t="n">
+        <v>370.2218181818182</v>
+      </c>
+      <c r="E548" t="n">
+        <v>377.9628571428572</v>
+      </c>
+      <c r="F548" t="n">
+        <v>373.9564705882353</v>
+      </c>
+      <c r="G548" t="n">
+        <v>371.740909090909</v>
+      </c>
+      <c r="H548" t="n">
+        <v>361.72</v>
+      </c>
+      <c r="I548" t="n">
+        <v>358</v>
+      </c>
+      <c r="J548" t="n">
+        <v>350.16</v>
+      </c>
+      <c r="K548" t="n">
+        <v>356.7064705882353</v>
+      </c>
+      <c r="L548" t="n">
+        <v>358.7</v>
+      </c>
+      <c r="M548" t="n">
+        <v>357.6228571428572</v>
+      </c>
+      <c r="N548" t="n">
+        <v>365.8328571428572</v>
+      </c>
+      <c r="O548" t="n">
+        <v>370.96</v>
+      </c>
+      <c r="P548" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26189,7 +26325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B618"/>
+  <dimension ref="A1:B621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32377,6 +32513,36 @@
       </c>
       <c r="B618" t="n">
         <v>-0.62</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -32550,28 +32716,28 @@
         <v>0.0427</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2364889936543181</v>
+        <v>0.2412539845363234</v>
       </c>
       <c r="J2" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K2" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01714097562269878</v>
+        <v>0.01790907643298234</v>
       </c>
       <c r="M2" t="n">
-        <v>10.52836568024322</v>
+        <v>10.54956772875937</v>
       </c>
       <c r="N2" t="n">
-        <v>185.9651703436614</v>
+        <v>186.1987824262533</v>
       </c>
       <c r="O2" t="n">
-        <v>13.63690472004778</v>
+        <v>13.64546746822011</v>
       </c>
       <c r="P2" t="n">
-        <v>362.3951025669887</v>
+        <v>362.3485597895906</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32628,28 +32794,28 @@
         <v>0.0709</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1663806913285427</v>
+        <v>0.1691999432856126</v>
       </c>
       <c r="J3" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K3" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01676157009727097</v>
+        <v>0.01746850235938757</v>
       </c>
       <c r="M3" t="n">
-        <v>7.621968638344334</v>
+        <v>7.613091385835165</v>
       </c>
       <c r="N3" t="n">
-        <v>92.76590296416244</v>
+        <v>92.51681061653403</v>
       </c>
       <c r="O3" t="n">
-        <v>9.631505747501915</v>
+        <v>9.618565933471269</v>
       </c>
       <c r="P3" t="n">
-        <v>370.1352406815606</v>
+        <v>370.107286692095</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32706,28 +32872,28 @@
         <v>0.0611</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1608987144782359</v>
+        <v>0.1597283110111368</v>
       </c>
       <c r="J4" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K4" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01462068854220222</v>
+        <v>0.01455979089170856</v>
       </c>
       <c r="M4" t="n">
-        <v>7.832376355666796</v>
+        <v>7.799725004623017</v>
       </c>
       <c r="N4" t="n">
-        <v>99.97361406153816</v>
+        <v>99.49721168544313</v>
       </c>
       <c r="O4" t="n">
-        <v>9.998680616038206</v>
+        <v>9.974828905071162</v>
       </c>
       <c r="P4" t="n">
-        <v>366.1338091450628</v>
+        <v>366.1453849105435</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32784,28 +32950,28 @@
         <v>0.0772</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2318903805964685</v>
+        <v>0.2284558657807539</v>
       </c>
       <c r="J5" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K5" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L5" t="n">
-        <v>0.029552392217569</v>
+        <v>0.02894649470432153</v>
       </c>
       <c r="M5" t="n">
-        <v>7.760897650840914</v>
+        <v>7.747146988044864</v>
       </c>
       <c r="N5" t="n">
-        <v>102.2885699795855</v>
+        <v>101.9775363039141</v>
       </c>
       <c r="O5" t="n">
-        <v>10.11378119100791</v>
+        <v>10.09839275844994</v>
       </c>
       <c r="P5" t="n">
-        <v>370.344084777654</v>
+        <v>370.3779709509953</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32862,28 +33028,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1841659237649262</v>
+        <v>0.1793620918238379</v>
       </c>
       <c r="J6" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K6" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01994725267855624</v>
+        <v>0.01909871783367711</v>
       </c>
       <c r="M6" t="n">
-        <v>7.221163541145191</v>
+        <v>7.208404707468122</v>
       </c>
       <c r="N6" t="n">
-        <v>97.6584528534592</v>
+        <v>97.32999831430132</v>
       </c>
       <c r="O6" t="n">
-        <v>9.882229143946176</v>
+        <v>9.865596703408331</v>
       </c>
       <c r="P6" t="n">
-        <v>376.1523001947194</v>
+        <v>376.1995310424158</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32940,28 +33106,28 @@
         <v>0.1267</v>
       </c>
       <c r="I7" t="n">
-        <v>0.328980855482263</v>
+        <v>0.3252161000799428</v>
       </c>
       <c r="J7" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K7" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0738154563220248</v>
+        <v>0.07286207565334391</v>
       </c>
       <c r="M7" t="n">
-        <v>6.701732598418541</v>
+        <v>6.688698092264141</v>
       </c>
       <c r="N7" t="n">
-        <v>79.33108061785228</v>
+        <v>79.04484164508858</v>
       </c>
       <c r="O7" t="n">
-        <v>8.906799684390139</v>
+        <v>8.890716599076173</v>
       </c>
       <c r="P7" t="n">
-        <v>368.6138443543747</v>
+        <v>368.6505377743023</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33018,28 +33184,28 @@
         <v>0.1452</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2781633799236778</v>
+        <v>0.2853727125547965</v>
       </c>
       <c r="J8" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K8" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0488931435840092</v>
+        <v>0.0509652433718768</v>
       </c>
       <c r="M8" t="n">
-        <v>6.958119148583111</v>
+        <v>7.001022071124981</v>
       </c>
       <c r="N8" t="n">
-        <v>87.1451138347264</v>
+        <v>88.4861857857103</v>
       </c>
       <c r="O8" t="n">
-        <v>9.335154730090252</v>
+        <v>9.406709615253908</v>
       </c>
       <c r="P8" t="n">
-        <v>361.3491375972968</v>
+        <v>361.2785922308428</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33096,28 +33262,28 @@
         <v>0.1496</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3225851973567011</v>
+        <v>0.3165849934421359</v>
       </c>
       <c r="J9" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K9" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08292538467982691</v>
+        <v>0.08050074571289434</v>
       </c>
       <c r="M9" t="n">
-        <v>6.175088479397848</v>
+        <v>6.172336019976184</v>
       </c>
       <c r="N9" t="n">
-        <v>66.52114762455615</v>
+        <v>66.51438380173146</v>
       </c>
       <c r="O9" t="n">
-        <v>8.15604975613539</v>
+        <v>8.155635094934757</v>
       </c>
       <c r="P9" t="n">
-        <v>360.8197370050933</v>
+        <v>360.8791754181321</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33174,28 +33340,28 @@
         <v>0.1384</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3230266602446727</v>
+        <v>0.3118655718870725</v>
       </c>
       <c r="J10" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K10" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07439088526604887</v>
+        <v>0.06957457761852925</v>
       </c>
       <c r="M10" t="n">
-        <v>6.627333615808057</v>
+        <v>6.658308155882935</v>
       </c>
       <c r="N10" t="n">
-        <v>75.95373321474879</v>
+        <v>76.46987898423026</v>
       </c>
       <c r="O10" t="n">
-        <v>8.715143900977699</v>
+        <v>8.744705768876976</v>
       </c>
       <c r="P10" t="n">
-        <v>359.567800427264</v>
+        <v>359.6778972885139</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33252,28 +33418,28 @@
         <v>0.0969</v>
       </c>
       <c r="I11" t="n">
-        <v>0.269863725485326</v>
+        <v>0.261616464414838</v>
       </c>
       <c r="J11" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K11" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04819340497575608</v>
+        <v>0.04562441889702773</v>
       </c>
       <c r="M11" t="n">
-        <v>7.124933797157891</v>
+        <v>7.136293832854603</v>
       </c>
       <c r="N11" t="n">
-        <v>84.33797202174152</v>
+        <v>84.35688614186556</v>
       </c>
       <c r="O11" t="n">
-        <v>9.183570766414419</v>
+        <v>9.184600488963337</v>
       </c>
       <c r="P11" t="n">
-        <v>358.4313385618718</v>
+        <v>358.5127909186012</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33330,28 +33496,28 @@
         <v>0.0839</v>
       </c>
       <c r="I12" t="n">
-        <v>0.367380831257085</v>
+        <v>0.3571069193477655</v>
       </c>
       <c r="J12" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K12" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07383901990217467</v>
+        <v>0.07022569048836635</v>
       </c>
       <c r="M12" t="n">
-        <v>7.726912385799708</v>
+        <v>7.750097297550226</v>
       </c>
       <c r="N12" t="n">
-        <v>99.18560552112207</v>
+        <v>99.39298892988442</v>
       </c>
       <c r="O12" t="n">
-        <v>9.959197031946003</v>
+        <v>9.969603248368735</v>
       </c>
       <c r="P12" t="n">
-        <v>362.7400728861213</v>
+        <v>362.841613486309</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33408,28 +33574,28 @@
         <v>0.0757</v>
       </c>
       <c r="I13" t="n">
-        <v>0.389155852626573</v>
+        <v>0.3802086346805684</v>
       </c>
       <c r="J13" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K13" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08377526909970445</v>
+        <v>0.08057894965742074</v>
       </c>
       <c r="M13" t="n">
-        <v>7.528319166833877</v>
+        <v>7.542066672166149</v>
       </c>
       <c r="N13" t="n">
-        <v>96.41985202184023</v>
+        <v>96.48661778602538</v>
       </c>
       <c r="O13" t="n">
-        <v>9.819361080123301</v>
+        <v>9.822760191821104</v>
       </c>
       <c r="P13" t="n">
-        <v>360.3672791625637</v>
+        <v>360.4561154078598</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33486,28 +33652,28 @@
         <v>0.0757</v>
       </c>
       <c r="I14" t="n">
-        <v>0.231500674831401</v>
+        <v>0.2304870219954204</v>
       </c>
       <c r="J14" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K14" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02698278588467773</v>
+        <v>0.02698624229129554</v>
       </c>
       <c r="M14" t="n">
-        <v>7.842265042557591</v>
+        <v>7.819911511327709</v>
       </c>
       <c r="N14" t="n">
-        <v>112.4470298305564</v>
+        <v>111.9661196488235</v>
       </c>
       <c r="O14" t="n">
-        <v>10.60410438606469</v>
+        <v>10.58140442705142</v>
       </c>
       <c r="P14" t="n">
-        <v>364.0062200369591</v>
+        <v>364.016364249887</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33564,28 +33730,28 @@
         <v>0.0567</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2070335311358926</v>
+        <v>0.1987702752991051</v>
       </c>
       <c r="J15" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K15" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L15" t="n">
-        <v>0.007914526999345917</v>
+        <v>0.007321840088755693</v>
       </c>
       <c r="M15" t="n">
-        <v>13.96232052182317</v>
+        <v>14.00041396757774</v>
       </c>
       <c r="N15" t="n">
-        <v>304.972355071581</v>
+        <v>305.7941309772436</v>
       </c>
       <c r="O15" t="n">
-        <v>17.46345770663934</v>
+        <v>17.48697032013389</v>
       </c>
       <c r="P15" t="n">
-        <v>394.1225525193063</v>
+        <v>394.2048264085243</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33623,7 +33789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P545"/>
+  <dimension ref="A1:P548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70889,6 +71055,200 @@
         </is>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:27+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr"/>
+      <c r="C546" t="inlineStr"/>
+      <c r="D546" t="inlineStr"/>
+      <c r="E546" t="inlineStr"/>
+      <c r="F546" t="inlineStr"/>
+      <c r="G546" t="inlineStr"/>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>-34.83323770794442,173.41280000768995</t>
+        </is>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="inlineStr"/>
+      <c r="M546" t="inlineStr"/>
+      <c r="N546" t="inlineStr"/>
+      <c r="O546" t="inlineStr"/>
+      <c r="P546" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>-34.82962313727787,173.41132047742428</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>-34.83027725479486,173.41100089715613</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>-34.83097424793866,173.41089256228872</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>-34.83168475871626,173.41109333973742</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>-34.83232325566948,173.4115115207109</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>-34.83292007343473,173.4119846774912</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>-34.83346183259601,173.41257957437864</t>
+        </is>
+      </c>
+      <c r="I547" t="inlineStr">
+        <is>
+          <t>-34.83388535499966,173.41330768559862</t>
+        </is>
+      </c>
+      <c r="J547" t="inlineStr">
+        <is>
+          <t>-34.83426833160531,173.4140780374665</t>
+        </is>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>-34.83453657062125,173.41491870815452</t>
+        </is>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>-34.83464888662382,173.41581302692592</t>
+        </is>
+      </c>
+      <c r="M547" t="inlineStr">
+        <is>
+          <t>-34.834749549991606,173.41670374390733</t>
+        </is>
+      </c>
+      <c r="N547" t="inlineStr">
+        <is>
+          <t>-34.8347708906612,173.41758826013307</t>
+        </is>
+      </c>
+      <c r="O547" t="inlineStr">
+        <is>
+          <t>-34.834259465695446,173.4183434676522</t>
+        </is>
+      </c>
+      <c r="P547" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>-34.829542465905675,173.4110205287465</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>-34.83026399140926,173.4108723757369</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>-34.8309711685295,173.4109168632813</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>-34.831656679558584,173.41120180912569</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>-34.832338087088395,173.41147817864208</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>-34.83293577469946,173.4119636949586</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>-34.83347948239536,173.41256221520473</t>
+        </is>
+      </c>
+      <c r="I548" t="inlineStr">
+        <is>
+          <t>-34.83395495434934,173.41325502796423</t>
+        </is>
+      </c>
+      <c r="J548" t="inlineStr">
+        <is>
+          <t>-34.834356303209795,173.41403478837466</t>
+        </is>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>-34.83452512729298,173.41492251497016</t>
+        </is>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>-34.83467906361772,173.41580605463355</t>
+        </is>
+      </c>
+      <c r="M548" t="inlineStr">
+        <is>
+          <t>-34.83479753318686,173.41669549569627</t>
+        </is>
+      </c>
+      <c r="N548" t="inlineStr">
+        <is>
+          <t>-34.83482604141327,173.41759175309045</t>
+        </is>
+      </c>
+      <c r="O548" t="inlineStr">
+        <is>
+          <t>-34.83460892495819,173.41844732908163</t>
+        </is>
+      </c>
+      <c r="P548" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0026/nzd0026.xlsx
+++ b/data/nzd0026/nzd0026.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P548"/>
+  <dimension ref="A1:P549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26314,6 +26314,50 @@
         </is>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr"/>
+      <c r="C549" t="inlineStr"/>
+      <c r="D549" t="inlineStr"/>
+      <c r="E549" t="inlineStr"/>
+      <c r="F549" t="inlineStr"/>
+      <c r="G549" t="n">
+        <v>341.8445454545454</v>
+      </c>
+      <c r="H549" t="n">
+        <v>346.42</v>
+      </c>
+      <c r="I549" t="n">
+        <v>359.5476923076924</v>
+      </c>
+      <c r="J549" t="n">
+        <v>355.7066666666667</v>
+      </c>
+      <c r="K549" t="n">
+        <v>352.8735294117647</v>
+      </c>
+      <c r="L549" t="n">
+        <v>360.4066666666667</v>
+      </c>
+      <c r="M549" t="n">
+        <v>350.3557142857143</v>
+      </c>
+      <c r="N549" t="n">
+        <v>361.3357142857143</v>
+      </c>
+      <c r="O549" t="n">
+        <v>398.03</v>
+      </c>
+      <c r="P549" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26325,7 +26369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B621"/>
+  <dimension ref="A1:B622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32543,6 +32587,16 @@
       </c>
       <c r="B621" t="n">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>-0.61</v>
       </c>
     </row>
   </sheetData>
@@ -33789,7 +33843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P548"/>
+  <dimension ref="A1:P549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71249,6 +71303,68 @@
         </is>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr"/>
+      <c r="C549" t="inlineStr"/>
+      <c r="D549" t="inlineStr"/>
+      <c r="E549" t="inlineStr"/>
+      <c r="F549" t="inlineStr"/>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>-34.83311695050605,173.41172157804192</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>-34.83358664183829,173.41245682006144</t>
+        </is>
+      </c>
+      <c r="I549" t="inlineStr">
+        <is>
+          <t>-34.83394311316276,173.41326398680354</t>
+        </is>
+      </c>
+      <c r="J549" t="inlineStr">
+        <is>
+          <t>-34.83430994958612,173.41405757701457</t>
+        </is>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>-34.83455845975888,173.41491142636164</t>
+        </is>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>-34.834663945593434,173.41580954760255</t>
+        </is>
+      </c>
+      <c r="M549" t="inlineStr">
+        <is>
+          <t>-34.83486241636314,173.41668434239878</t>
+        </is>
+      </c>
+      <c r="N549" t="inlineStr">
+        <is>
+          <t>-34.83486653932926,173.41759431801785</t>
+        </is>
+      </c>
+      <c r="O549" t="inlineStr">
+        <is>
+          <t>-34.834371835691485,173.41837686460096</t>
+        </is>
+      </c>
+      <c r="P549" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0026/nzd0026.xlsx
+++ b/data/nzd0026/nzd0026.xlsx
@@ -32773,7 +32773,7 @@
         <v>0.2412539845363234</v>
       </c>
       <c r="J2" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K2" t="n">
         <v>385</v>
@@ -32851,7 +32851,7 @@
         <v>0.1691999432856126</v>
       </c>
       <c r="J3" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K3" t="n">
         <v>396</v>
@@ -32929,7 +32929,7 @@
         <v>0.1597283110111368</v>
       </c>
       <c r="J4" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K4" t="n">
         <v>408</v>
@@ -33007,7 +33007,7 @@
         <v>0.2284558657807539</v>
       </c>
       <c r="J5" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K5" t="n">
         <v>400</v>
@@ -33085,7 +33085,7 @@
         <v>0.1793620918238379</v>
       </c>
       <c r="J6" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K6" t="n">
         <v>409</v>
@@ -33160,28 +33160,28 @@
         <v>0.1267</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3252161000799428</v>
+        <v>0.3093965190466716</v>
       </c>
       <c r="J7" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K7" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07286207565334391</v>
+        <v>0.06448238515782057</v>
       </c>
       <c r="M7" t="n">
-        <v>6.688698092264141</v>
+        <v>6.752670902860015</v>
       </c>
       <c r="N7" t="n">
-        <v>79.04484164508858</v>
+        <v>81.78632166679792</v>
       </c>
       <c r="O7" t="n">
-        <v>8.890716599076173</v>
+        <v>9.043579029720364</v>
       </c>
       <c r="P7" t="n">
-        <v>368.6505377743023</v>
+        <v>368.8049571563004</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33238,28 +33238,28 @@
         <v>0.1452</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2853727125547965</v>
+        <v>0.2754449988623778</v>
       </c>
       <c r="J8" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K8" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0509652433718768</v>
+        <v>0.04727537660906223</v>
       </c>
       <c r="M8" t="n">
-        <v>7.001022071124981</v>
+        <v>7.036540466682426</v>
       </c>
       <c r="N8" t="n">
-        <v>88.4861857857103</v>
+        <v>89.4453999035692</v>
       </c>
       <c r="O8" t="n">
-        <v>9.406709615253908</v>
+        <v>9.457557819203073</v>
       </c>
       <c r="P8" t="n">
-        <v>361.2785922308428</v>
+        <v>361.3765224910094</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33316,28 +33316,28 @@
         <v>0.1496</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3165849934421359</v>
+        <v>0.312302460100028</v>
       </c>
       <c r="J9" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K9" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08050074571289434</v>
+        <v>0.07862544483531342</v>
       </c>
       <c r="M9" t="n">
-        <v>6.172336019976184</v>
+        <v>6.17657117430986</v>
       </c>
       <c r="N9" t="n">
-        <v>66.51438380173146</v>
+        <v>66.57454678997159</v>
       </c>
       <c r="O9" t="n">
-        <v>8.155635094934757</v>
+        <v>8.159322691864293</v>
       </c>
       <c r="P9" t="n">
-        <v>360.8791754181321</v>
+        <v>360.9216557399756</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33394,28 +33394,28 @@
         <v>0.1384</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3118655718870725</v>
+        <v>0.3065103541507809</v>
       </c>
       <c r="J10" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K10" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06957457761852925</v>
+        <v>0.06738301808670277</v>
       </c>
       <c r="M10" t="n">
-        <v>6.658308155882935</v>
+        <v>6.673122609917071</v>
       </c>
       <c r="N10" t="n">
-        <v>76.46987898423026</v>
+        <v>76.63623122284005</v>
       </c>
       <c r="O10" t="n">
-        <v>8.744705768876976</v>
+        <v>8.754212198869757</v>
       </c>
       <c r="P10" t="n">
-        <v>359.6778972885139</v>
+        <v>359.7308026611911</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33472,28 +33472,28 @@
         <v>0.0969</v>
       </c>
       <c r="I11" t="n">
-        <v>0.261616464414838</v>
+        <v>0.2561823563739583</v>
       </c>
       <c r="J11" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K11" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04562441889702773</v>
+        <v>0.04384798845157445</v>
       </c>
       <c r="M11" t="n">
-        <v>7.136293832854603</v>
+        <v>7.149004567457079</v>
       </c>
       <c r="N11" t="n">
-        <v>84.35688614186556</v>
+        <v>84.52378699203527</v>
       </c>
       <c r="O11" t="n">
-        <v>9.184600488963337</v>
+        <v>9.193681906180748</v>
       </c>
       <c r="P11" t="n">
-        <v>358.5127909186012</v>
+        <v>358.5665541976886</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33550,28 +33550,28 @@
         <v>0.0839</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3571069193477655</v>
+        <v>0.3520581888702228</v>
       </c>
       <c r="J12" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K12" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07022569048836635</v>
+        <v>0.06848087078241005</v>
       </c>
       <c r="M12" t="n">
-        <v>7.750097297550226</v>
+        <v>7.761052695404385</v>
       </c>
       <c r="N12" t="n">
-        <v>99.39298892988442</v>
+        <v>99.48283187042171</v>
       </c>
       <c r="O12" t="n">
-        <v>9.969603248368735</v>
+        <v>9.974108073929303</v>
       </c>
       <c r="P12" t="n">
-        <v>362.841613486309</v>
+        <v>362.8915943983142</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33628,28 +33628,28 @@
         <v>0.0757</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3802086346805684</v>
+        <v>0.3714797688784978</v>
       </c>
       <c r="J13" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K13" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08057894965742074</v>
+        <v>0.07684995045726162</v>
       </c>
       <c r="M13" t="n">
-        <v>7.542066672166149</v>
+        <v>7.572980362401696</v>
       </c>
       <c r="N13" t="n">
-        <v>96.48661778602538</v>
+        <v>97.19975084248708</v>
       </c>
       <c r="O13" t="n">
-        <v>9.822760191821104</v>
+        <v>9.858993399048762</v>
       </c>
       <c r="P13" t="n">
-        <v>360.4561154078598</v>
+        <v>360.5429210808821</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33706,28 +33706,28 @@
         <v>0.0757</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2304870219954204</v>
+        <v>0.226725914356677</v>
       </c>
       <c r="J14" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K14" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02698624229129554</v>
+        <v>0.02621333255766445</v>
       </c>
       <c r="M14" t="n">
-        <v>7.819911511327709</v>
+        <v>7.822793481713544</v>
       </c>
       <c r="N14" t="n">
-        <v>111.9661196488235</v>
+        <v>111.8800683728348</v>
       </c>
       <c r="O14" t="n">
-        <v>10.58140442705142</v>
+        <v>10.57733748978611</v>
       </c>
       <c r="P14" t="n">
-        <v>364.016364249887</v>
+        <v>364.0540211446298</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33784,28 +33784,28 @@
         <v>0.0567</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1987702752991051</v>
+        <v>0.1981130593043907</v>
       </c>
       <c r="J15" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K15" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L15" t="n">
-        <v>0.007321840088755693</v>
+        <v>0.007312005812899369</v>
       </c>
       <c r="M15" t="n">
-        <v>14.00041396757774</v>
+        <v>13.969982203211</v>
       </c>
       <c r="N15" t="n">
-        <v>305.7941309772436</v>
+        <v>305.0456097927611</v>
       </c>
       <c r="O15" t="n">
-        <v>17.48697032013389</v>
+        <v>17.4655549523272</v>
       </c>
       <c r="P15" t="n">
-        <v>394.2048264085243</v>
+        <v>394.2113737317712</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">

--- a/data/nzd0026/nzd0026.xlsx
+++ b/data/nzd0026/nzd0026.xlsx
@@ -32764,10 +32764,10 @@
         <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0382</v>
+        <v>0.037</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0427</v>
+        <v>0.0492</v>
       </c>
       <c r="I2" t="n">
         <v>0.2412539845363234</v>
@@ -32842,10 +32842,10 @@
         <v>0.065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0588</v>
+        <v>0.0561</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0709</v>
+        <v>0.076</v>
       </c>
       <c r="I3" t="n">
         <v>0.1692451323460216</v>
@@ -32917,13 +32917,13 @@
         <v>0.1528912630834561</v>
       </c>
       <c r="F4" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0504</v>
+        <v>0.0549</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0611</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>0.1597096025339069</v>
@@ -32995,13 +32995,13 @@
         <v>0.2297212054001806</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.062</v>
+        <v>0.066</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0772</v>
+        <v>0.1011</v>
       </c>
       <c r="I5" t="n">
         <v>0.2284509312494856</v>
@@ -33073,13 +33073,13 @@
         <v>0.3067862290967119</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0751</v>
+        <v>0.0603</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09130000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>0.1793700106282295</v>
@@ -33151,13 +33151,13 @@
         <v>0.3839273539976782</v>
       </c>
       <c r="F7" t="n">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1009</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1267</v>
+        <v>0.1556</v>
       </c>
       <c r="I7" t="n">
         <v>0.3093982902299981</v>
@@ -33229,13 +33229,13 @@
         <v>0.4608123302244306</v>
       </c>
       <c r="F8" t="n">
-        <v>0.125</v>
+        <v>0.095</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1078</v>
+        <v>0.0794</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1452</v>
+        <v>0.1245</v>
       </c>
       <c r="I8" t="n">
         <v>0.2754449988623779</v>
@@ -33307,13 +33307,13 @@
         <v>0.5377050789802068</v>
       </c>
       <c r="F9" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="G9" t="n">
-        <v>0.115</v>
+        <v>0.0883</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1496</v>
+        <v>0.1453</v>
       </c>
       <c r="I9" t="n">
         <v>0.3122990081435081</v>
@@ -33385,13 +33385,13 @@
         <v>0.6148462038836373</v>
       </c>
       <c r="F10" t="n">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1047</v>
+        <v>0.0862</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1384</v>
+        <v>0.1691</v>
       </c>
       <c r="I10" t="n">
         <v>0.3064915798796717</v>
@@ -33463,13 +33463,13 @@
         <v>0.6916041508389104</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G11" t="n">
-        <v>0.075</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0969</v>
+        <v>0.1152</v>
       </c>
       <c r="I11" t="n">
         <v>0.2561812212045486</v>
@@ -33541,13 +33541,13 @@
         <v>0.7687079369182175</v>
       </c>
       <c r="F12" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0694</v>
+        <v>0.06859999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0839</v>
+        <v>0.1098</v>
       </c>
       <c r="I12" t="n">
         <v>0.3520369451775978</v>
@@ -33619,13 +33619,13 @@
         <v>0.8458490618224418</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0636</v>
+        <v>0.0543</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0757</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="I13" t="n">
         <v>0.3714770008650408</v>
@@ -33697,13 +33697,13 @@
         <v>0.9228588750938618</v>
       </c>
       <c r="F14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06370000000000001</v>
+        <v>0.0506</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0757</v>
+        <v>0.0789</v>
       </c>
       <c r="I14" t="n">
         <v>0.2267256483876926</v>
@@ -33775,13 +33775,13 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05</v>
+        <v>0.025</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0471</v>
+        <v>0.023</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0567</v>
+        <v>0.0274</v>
       </c>
       <c r="I15" t="n">
         <v>0.1981130593043906</v>
